--- a/project_document/project_plan_document.xlsx
+++ b/project_document/project_plan_document.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cliff_studio_project_2025\project_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8517B086-0DD3-4BBB-A44C-2BBC28664830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8459865A-D572-4AB7-A3DA-A081F79BE53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8235" yWindow="3855" windowWidth="19425" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトの計画" sheetId="1" r:id="rId1"/>
-    <sheet name="将来応募したい会社" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="将来応募したい会社" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="375">
   <si>
     <t>使う技術</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +183,1014 @@
   <si>
     <t>ニトリ</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java/Spring Boot + REST + PostgreSQL + Docker + GitHub Actions +（可選 AWS）</t>
+  </si>
+  <si>
+    <t>例子：URL 短網址服務 / 待辦清單（含用戶、權限、排序/搜尋）/ 影像上傳與縮圖管線（S3、SQS 或 Kafka 事件流，若你想展示分散式）。</t>
+  </si>
+  <si>
+    <t>里程碑</t>
+  </si>
+  <si>
+    <t>必備產出清單</t>
+  </si>
+  <si>
+    <t>公開 Repo（清晰 README + 架構圖 + ADR/設計取捨）</t>
+  </si>
+  <si>
+    <t>Demo 影片（2–3 分鐘）</t>
+  </si>
+  <si>
+    <t>自動化測試 &amp; CI</t>
+  </si>
+  <si>
+    <t>一張「前後對比/指標圖」或壓測報告（可簡單）</t>
+  </si>
+  <si>
+    <t>發佈貼文（LinkedIn/Blog），方便面試官點進來看</t>
+  </si>
+  <si>
+    <t>W1：定題 + 需求 10 行；畫簡單架構圖；定義 3 個展示用 API 與成功指標（如 P95 latency、QPS 目標）。</t>
+  </si>
+  <si>
+    <t>W2：把「最小功能」做完：資料模型、CRUD、單元測試 ≥70% 覆蓋、Docker 一鍵啟動。</t>
+  </si>
+  <si>
+    <t>W3：加入觀測性（/health、結構化日誌、簡單指標），補 README（啟動、測試、架構圖、設計取捨）。</t>
+  </si>
+  <si>
+    <t>W4：上 GitHub 公開、接 GitHub Actions CI；錄 2–3 分鐘 Demo 影片；寫 1 篇技術筆記。</t>
+  </si>
+  <si>
+    <t>W5：邀 2 位同行/學長姐 Code Review；依意見修一版；補負載測試腳本（k6/JMeter）與結果。</t>
+  </si>
+  <si>
+    <t>W6：整理作品說明頁（中/英/日擇二）：問題背景→架構→技術要點→指標→未來改進；把連結放進履歷與 LinkedIn。</t>
+  </si>
+  <si>
+    <t>路線選擇</t>
+  </si>
+  <si>
+    <t>A) 本機/單機示範（最快）</t>
+  </si>
+  <si>
+    <t>k3d 或 kind 起一個本機叢集</t>
+  </si>
+  <si>
+    <t>NGINX Ingress + Metrics Server</t>
+  </si>
+  <si>
+    <t>Postgres 用 StatefulSet（或乾脆用 Docker 外部 DB 也可以）</t>
+  </si>
+  <si>
+    <t>透過 Skaffold 或 kubectl kustomize 做本機快速迭代</t>
+  </si>
+  <si>
+    <t>👉 適合錄 Demo 影片與寫技術文：你能完整展示從 Docker → K8s 的部署流程與自動擴縮。</t>
+  </si>
+  <si>
+    <t>B) 雲端展示（求職更亮眼）</t>
+  </si>
+  <si>
+    <t>EKS / GKE / AKS 擇一（或用一台便宜 VPS + k3s）</t>
+  </si>
+  <si>
+    <t>影像推到 GHCR / Docker Hub</t>
+  </si>
+  <si>
+    <t>GitHub Actions：build → push → deploy 到 K8s</t>
+  </si>
+  <si>
+    <t>👉 可以給出「可瀏覽 URL」與 一鍵重佈署，面試超好講。</t>
+  </si>
+  <si>
+    <t>最小可展示的 K8s 清單（你需要的就這些）</t>
+  </si>
+  <si>
+    <t>1. Deployment（你的 Spring Boot 服務）</t>
+  </si>
+  <si>
+    <t>2. Service (ClusterIP)（供 Ingress 轉發）</t>
+  </si>
+  <si>
+    <t>3. Ingress（對外入口；本機用 NGINX Ingress）</t>
+  </si>
+  <si>
+    <t>4. ConfigMap（應用設定）</t>
+  </si>
+  <si>
+    <t>5. Secret（DB 密碼、JWT 秘鑰…）</t>
+  </si>
+  <si>
+    <t>6. HorizontalPodAutoscaler (HPA)（展示伸縮）</t>
+  </si>
+  <si>
+    <t>7. Postgres</t>
+  </si>
+  <si>
+    <t>Demo 可用 StatefulSet + PVC；</t>
+  </si>
+  <si>
+    <t>上雲建議用託管 DB（RDS / Cloud SQL），K8s 只放應用。</t>
+  </si>
+  <si>
+    <t>8. Resource requests/limits（讓 HPA/排程更合理）</t>
+  </si>
+  <si>
+    <t>GitHub Actions（CI/CD 思路）</t>
+  </si>
+  <si>
+    <t>1. CI：建置 + 測試 + 建 Docker image → 推到 GHCR/Docker Hub</t>
+  </si>
+  <si>
+    <t>2. CD：對 main 或 tag 觸發，用 kubectl 或 helm upgrade 部署</t>
+  </si>
+  <si>
+    <t>雲端叢集用 OIDC 或 Kubeconfig Secret</t>
+  </si>
+  <si>
+    <t>本機演示可改為手動 make deploy</t>
+  </si>
+  <si>
+    <t>風險與簡化策略</t>
+  </si>
+  <si>
+    <t>K8s 最容易失控在「功能太多」。先達成：可外網訪問 + HPA + 滾動升級，其餘（Service Mesh、Prometheus/Grafana、Helm chart 化）放第二階段。</t>
+  </si>
+  <si>
+    <t>資料庫不建議在 K8s 自管（為了穩定與成本），上雲就用託管 DB。</t>
+  </si>
+  <si>
+    <t>給面試官的敘事角度（你可以這樣講）</t>
+  </si>
+  <si>
+    <t>「我用 Spring Boot 做了一個可量化的服務，容器化後用 K8s 部署。為了可維運與擴展，我設定了 requests/limits 與 HPA，並以 Actuator 提供健康探針與指標。CI/CD 方面使用 GitHub Actions 從建置到部署，演示滾動升級與回滾，資料層上雲使用託管 DB 以降低營運風險。」</t>
+  </si>
+  <si>
+    <t>🚀 AWS 部署計畫（示範系統版）</t>
+  </si>
+  <si>
+    <t>1. 基礎環境選擇</t>
+  </si>
+  <si>
+    <t>EC2 類型：</t>
+  </si>
+  <si>
+    <t>t3.small（2 vCPU / 2GB RAM）：約 USD 15–20/月 → 足夠跑 Spring Boot + PostgreSQL + Nginx。</t>
+  </si>
+  <si>
+    <t>若需要再多一點餘裕：t3.medium（2 vCPU / 4GB RAM），約 USD 30/月。</t>
+  </si>
+  <si>
+    <t>OS：Amazon Linux 2 / Ubuntu 22.04 LTS。</t>
+  </si>
+  <si>
+    <t>儲存：20 GB gp3 EBS（每月約 2 美元）。</t>
+  </si>
+  <si>
+    <t>網路：一個彈性 IP（Elastic IP，免費）。</t>
+  </si>
+  <si>
+    <t>👉 先用 EC2 + Docker/Kubernetes，暫時不用 EKS，因為 EKS 固定就要多收 70+ USD/月，不適合示範系統。</t>
+  </si>
+  <si>
+    <t>2. 架構規劃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[GitHub Actions] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     v</t>
+  </si>
+  <si>
+    <t>[Docker Build + Push to GHCR]</t>
+  </si>
+  <si>
+    <t>[AWS EC2 (t3.small)] -- [k3s/kind]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [Spring Boot Service + PostgreSQL]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [NGINX Ingress Controller]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  https://demo.yourdomain.com</t>
+  </si>
+  <si>
+    <t>3. 部署步驟</t>
+  </si>
+  <si>
+    <t>A) 準備 EC2</t>
+  </si>
+  <si>
+    <t>1. 建立 EC2 instance（Ubuntu 22.04）。</t>
+  </si>
+  <si>
+    <t>2. 開啟 Security Group port：22 (SSH), 80 (HTTP), 443 (HTTPS)。</t>
+  </si>
+  <si>
+    <t>3. 安裝基礎工具：docker, docker-compose, kubectl, k3s（或 kind）。</t>
+  </si>
+  <si>
+    <t>B) 容器化應用</t>
+  </si>
+  <si>
+    <t>1. 在本地先寫好 Dockerfile（Spring Boot + JDK17 + JAR）。</t>
+  </si>
+  <si>
+    <t>2. PostgreSQL 可以：</t>
+  </si>
+  <si>
+    <t>放在同一台 EC2 用 Docker 容器；</t>
+  </si>
+  <si>
+    <t>或直接用 AWS RDS Free Tier（更專業，但多一點錢）。</t>
+  </si>
+  <si>
+    <t>3. 測試 docker-compose up 可以跑通。</t>
+  </si>
+  <si>
+    <t>C) Kubernetes（選擇性）</t>
+  </si>
+  <si>
+    <t>如果你想展示 K8s：在 EC2 上裝 k3s（輕量 K8s）。</t>
+  </si>
+  <si>
+    <t>部署 Deployment / Service / Ingress YAML。</t>
+  </si>
+  <si>
+    <t>開一個 Nginx Ingress Controller。</t>
+  </si>
+  <si>
+    <t>D) 網域與 HTTPS</t>
+  </si>
+  <si>
+    <t>1. 註冊一個便宜網域（Route53 或 Freenom 免費網域）。</t>
+  </si>
+  <si>
+    <t>2. 在 Route53 建立 DNS A record → 指向你的 EC2 Public IP。</t>
+  </si>
+  <si>
+    <t>3. 用 Certbot + Nginx Ingress → 免費的 Let’s Encrypt HTTPS。</t>
+  </si>
+  <si>
+    <t>E) CI/CD</t>
+  </si>
+  <si>
+    <t>GitHub Actions workflow：</t>
+  </si>
+  <si>
+    <t>1. Push → 建置 Docker image → 推到 GHCR（GitHub Container Registry）。</t>
+  </si>
+  <si>
+    <t>2. SSH 到 EC2 → kubectl rollout restart or docker-compose pull &amp;&amp; up -d。</t>
+  </si>
+  <si>
+    <t>範例（最簡版）：</t>
+  </si>
+  <si>
+    <t>name: CI/CD</t>
+  </si>
+  <si>
+    <t>on:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  push:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    branches: [ main ]</t>
+  </si>
+  <si>
+    <t>jobs:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  build-and-deploy:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    runs-on: ubuntu-latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    steps:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - uses: actions/checkout@v4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - name: Build &amp; Push Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        run: |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          docker build -t ghcr.io/${{ github.repository }}:latest .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          echo ${{ secrets.GITHUB_TOKEN }} | docker login ghcr.io -u ${{ github.actor }} --password-stdin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          docker push ghcr.io/${{ github.repository }}:latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - name: Deploy to EC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        uses: appleboy/ssh-action@v1.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        with:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          host: ${{ secrets.EC2_HOST }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          username: ubuntu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          key: ${{ secrets.EC2_SSH_KEY }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          script: |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            docker pull ghcr.io/${{ github.repository }}:latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            docker-compose -f ~/app/docker-compose.yml up -d</t>
+  </si>
+  <si>
+    <t>4. 成本預估（每月）</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t>EC2 (t3.small, 20GB EBS)</t>
+  </si>
+  <si>
+    <t>~USD 17</t>
+  </si>
+  <si>
+    <t>Elastic IP</t>
+  </si>
+  <si>
+    <t>流量（50GB/月內）</t>
+  </si>
+  <si>
+    <t>幾乎免費</t>
+  </si>
+  <si>
+    <t>Route53 網域</t>
+  </si>
+  <si>
+    <t>~USD 1/月</t>
+  </si>
+  <si>
+    <t>總計</t>
+  </si>
+  <si>
+    <t>~USD 18–20</t>
+  </si>
+  <si>
+    <t>（若加 RDS 最便宜版，會再多 ~15 美元/月。）</t>
+  </si>
+  <si>
+    <t>5. Demo 包裝方式（面試可用）</t>
+  </si>
+  <si>
+    <t>「我做了一個 Spring Boot + PostgreSQL 的服務，容器化後部署在 AWS EC2 上，使用 Docker/Kubernetes 管理。CI/CD 採 GitHub Actions，自動部署並能滾動升級。Ingress 綁定自有網域並加上 HTTPS，系統可透過公開網址存取。」</t>
+  </si>
+  <si>
+    <t>你可以提供：</t>
+  </si>
+  <si>
+    <t>GitHub Repo（公開程式碼 + README）</t>
+  </si>
+  <si>
+    <t>Demo 網址</t>
+  </si>
+  <si>
+    <t>短 Demo 影片（2 分鐘，展示 CI/CD + API 呼叫）</t>
+  </si>
+  <si>
+    <t>⚡ 結論：</t>
+  </si>
+  <si>
+    <t>👉 AWS EC2 + Docker/K8s + GitHub Actions + 自有網域 = 成本低、能展示專業度、面試好講。</t>
+  </si>
+  <si>
+    <t>👉 RDS / EKS 可放在第二階段，若時間不夠先不用。</t>
+  </si>
+  <si>
+    <t>🎯 建議你 Demo 的重點（工程師＋架構思維）</t>
+  </si>
+  <si>
+    <t>1. 容器化 &amp; 部署能力</t>
+  </si>
+  <si>
+    <t>後端、前端都 Docker 化。</t>
+  </si>
+  <si>
+    <t>CI/CD pipeline 自動建置 &amp; 部署。</t>
+  </si>
+  <si>
+    <t>2. Kubernetes &amp; 自動擴縮</t>
+  </si>
+  <si>
+    <t>Deployment + Service + Ingress 基本功。</t>
+  </si>
+  <si>
+    <t>HPA (Horizontal Pod Autoscaler) 示範 CPU / QPS 下的自動 scale out。</t>
+  </si>
+  <si>
+    <t>3. 分散式/解耦設計</t>
+  </si>
+  <si>
+    <t>一個主要服務（核心 API）+ 一個背景工作（worker）。</t>
+  </si>
+  <si>
+    <t>4. 壓力測試與流量分流</t>
+  </si>
+  <si>
+    <t>k6/JMeter 壓測報告。</t>
+  </si>
+  <si>
+    <t>示範 scale out 前後的差異。</t>
+  </si>
+  <si>
+    <t>5. 資料庫設計</t>
+  </si>
+  <si>
+    <t>主 DB：PostgreSQL。</t>
+  </si>
+  <si>
+    <t>額外展示：NoSQL（Redis 或 MongoDB）做 cache / session / event log。</t>
+  </si>
+  <si>
+    <t>重點是「選型理由」，說明你如何考量關聯式 vs. 非關聯式。</t>
+  </si>
+  <si>
+    <t>6. 觀測性 (Observability)</t>
+  </si>
+  <si>
+    <t>Log aggregation（簡單 stdout + ELK/EFK 可選）</t>
+  </si>
+  <si>
+    <t>7. 文件與架構圖</t>
+  </si>
+  <si>
+    <t>README 清楚說明：架構圖、技術選型、部署流程、CI/CD。</t>
+  </si>
+  <si>
+    <t>這是「面試官最愛看」的部分，因為比功能更能展示思考。</t>
+  </si>
+  <si>
+    <t>用 message queue（Kafka / RabbitMQ / SQS）連接，展示非同步處理。</t>
+  </si>
+  <si>
+    <t>健康檢查 /health</t>
+  </si>
+  <si>
+    <t>Metrics /actuator/prometheus</t>
+  </si>
+  <si>
+    <t>✅ 你 demo 的敘事方式（面試時可以這樣講）</t>
+  </si>
+  <si>
+    <t>「這個系統的功能很簡單，但我設計的重點在於如何讓它能夠在雲端可擴展、可維運。</t>
+  </si>
+  <si>
+    <t>我使用 Docker 把前後端容器化，再用 Kubernetes 部署，設定了自動擴縮與 Ingress。</t>
+  </si>
+  <si>
+    <t>資料存放在 PostgreSQL，並額外加了 Redis 作為快取。</t>
+  </si>
+  <si>
+    <t>背景任務透過 Kafka 處理，確保服務能在高流量下不會被同步請求壓垮。</t>
+  </si>
+  <si>
+    <t>我也做了壓測，展示系統在 scale out 前後的差異，並用 CI/CD pipeline 自動化部署到 AWS。」</t>
+  </si>
+  <si>
+    <t>👉 這種故事比「我做了一個 ToDo app」要有殺傷力太多了。</t>
+  </si>
+  <si>
+    <t>📌 結論</t>
+  </si>
+  <si>
+    <t>你不用花時間在「花俏功能」，CRUD 有就好。</t>
+  </si>
+  <si>
+    <t>把精力放在 Docker → K8s → 分散式 → 壓測 → 架構文件。</t>
+  </si>
+  <si>
+    <t>這樣的 demo 才能真的讓面試官看到你超越一般全端工程師、往系統架構師方向的實力。</t>
+  </si>
+  <si>
+    <t>太好了 🔥 我幫你設計一個 「架構導向 Demo 藍圖」，目標是：功能簡單，但能充分展示 架構設計能力、雲端部署經驗、可擴展性思維。</t>
+  </si>
+  <si>
+    <t>🏗️ 架構導向 Demo 藍圖</t>
+  </si>
+  <si>
+    <t>1. 功能主題（MVP）</t>
+  </si>
+  <si>
+    <t>👉 功能不用複雜，只要「大家懂」＋「能承載架構」</t>
+  </si>
+  <si>
+    <t>短網址服務（縮網址 → 轉址 → 點擊數統計）</t>
+  </si>
+  <si>
+    <t>或 待辦清單（含用戶 / 權限 / 查詢）</t>
+  </si>
+  <si>
+    <t>或 影像上傳 → 壓縮/縮圖 → 下載</t>
+  </si>
+  <si>
+    <t>📌 重點：功能是「載體」，讓你能展示 分散式架構 + DevOps 能力。</t>
+  </si>
+  <si>
+    <t>2. 架構藍圖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [Frontend: React] ----&gt; [API Gateway / Ingress]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ----------------+-------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                |                                   |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      [Spring Boot API]                   [Worker Service]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      (CRUD / REST / GraphQL)             (異步處理: 縮圖/統計)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [PostgreSQL] ----------------------- [Redis/MongoDB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         (持久化資料庫)</t>
+  </si>
+  <si>
+    <t>元件亮點</t>
+  </si>
+  <si>
+    <t>Spring Boot API：核心服務，提供 RESTful API。</t>
+  </si>
+  <si>
+    <t>Worker Service：非同步處理，透過 Kafka/SQS 接收事件。</t>
+  </si>
+  <si>
+    <t>PostgreSQL：主資料庫。</t>
+  </si>
+  <si>
+    <t>Redis/MongoDB：快取或儲存事件日誌。</t>
+  </si>
+  <si>
+    <t>Ingress (NGINX)：K8s 對外入口。</t>
+  </si>
+  <si>
+    <t>CI/CD (GitHub Actions)：自動化 build &amp; deploy。</t>
+  </si>
+  <si>
+    <t>Kubernetes (k3s/EKS)：管理容器 + HPA 自動擴縮。</t>
+  </si>
+  <si>
+    <t>監控：Spring Boot Actuator + Prometheus（可選 Grafana）。</t>
+  </si>
+  <si>
+    <t>3. 技術清單（必備＋加分）</t>
+  </si>
+  <si>
+    <t>必備</t>
+  </si>
+  <si>
+    <t>後端：Java 17 + Spring Boot + Spring Data JPA</t>
+  </si>
+  <si>
+    <t>前端：React (Vite + Tailwind) 簡單 UI</t>
+  </si>
+  <si>
+    <t>資料庫：PostgreSQL</t>
+  </si>
+  <si>
+    <t>容器：Docker + docker-compose</t>
+  </si>
+  <si>
+    <t>CI/CD：GitHub Actions</t>
+  </si>
+  <si>
+    <t>部署：AWS EC2 + k3s（Kubernetes 輕量版）</t>
+  </si>
+  <si>
+    <t>Ingress：NGINX + Let’s Encrypt（免費 HTTPS）</t>
+  </si>
+  <si>
+    <t>加分</t>
+  </si>
+  <si>
+    <t>非同步處理：Kafka 或 SQS + Worker Service</t>
+  </si>
+  <si>
+    <t>NoSQL：Redis (快取 / session)</t>
+  </si>
+  <si>
+    <t>壓測：k6 / JMeter</t>
+  </si>
+  <si>
+    <t>觀測性：Prometheus + Grafana</t>
+  </si>
+  <si>
+    <t>文件：README（架構圖 + 技術選型 + 部署流程）</t>
+  </si>
+  <si>
+    <t>4. Demo 要展示的重點</t>
+  </si>
+  <si>
+    <t>1. 功能跑得起來：能 CRUD 或產生短網址。</t>
+  </si>
+  <si>
+    <t>2. CI/CD：push → 自動 build → deploy → 更新服務。</t>
+  </si>
+  <si>
+    <t>3. K8s HPA：壓測 → Pod 自動擴縮。</t>
+  </si>
+  <si>
+    <t>4. 非同步處理：請求送入 Queue → Worker 消化 → 結果寫回 DB。</t>
+  </si>
+  <si>
+    <t>5. DB 選型解釋：為什麼核心數據用 PostgreSQL、為什麼 cache/log 用 Redis/MongoDB。</t>
+  </si>
+  <si>
+    <t>6. 觀測性：Prometheus 抓 metrics，Grafana 出圖表。</t>
+  </si>
+  <si>
+    <t>7. 架構文件：清楚的架構圖、技術選型、優缺點。</t>
+  </si>
+  <si>
+    <t>5. 六週里程碑（架構導向版）</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>定題（短網址 / ToDo / 影像管線）</t>
+  </si>
+  <si>
+    <t>Spring Boot + PostgreSQL（CRUD MVP）</t>
+  </si>
+  <si>
+    <t>React + 基本 UI</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Docker 化（API + Frontend + DB）</t>
+  </si>
+  <si>
+    <t>docker-compose 本地跑通</t>
+  </si>
+  <si>
+    <t>GitHub Actions：CI (build + test)</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>部署 AWS EC2（Docker Compose → k3s）</t>
+  </si>
+  <si>
+    <t>Ingress + 免費網域 + HTTPS</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>加入 Redis 或 MongoDB</t>
+  </si>
+  <si>
+    <t>非同步處理（Kafka / SQS + Worker Service）</t>
+  </si>
+  <si>
+    <t>CI/CD 自動部署</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>壓測（k6 / JMeter）</t>
+  </si>
+  <si>
+    <t>加 HPA（自動擴縮）</t>
+  </si>
+  <si>
+    <t>加監控（Actuator + Prometheus）</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>文件化（README + 架構圖 + 部署步驟）</t>
+  </si>
+  <si>
+    <t>Demo 錄影（CI/CD 流程 + scale out showcase）</t>
+  </si>
+  <si>
+    <t>發布在 GitHub / LinkedIn</t>
+  </si>
+  <si>
+    <t>6. 面試包裝方式</t>
+  </si>
+  <si>
+    <t>你可以用這個故事線：</t>
+  </si>
+  <si>
+    <t>1. 我選了一個簡單的功能作為案例，但重點在系統設計。</t>
+  </si>
+  <si>
+    <t>2. 我容器化並部署到 AWS，使用 Kubernetes 管理。</t>
+  </si>
+  <si>
+    <t>3. 我設計了異步處理與 cache，展示分散式思維。</t>
+  </si>
+  <si>
+    <t>4. 我做了壓測與自動擴縮，證明系統可伸縮。</t>
+  </si>
+  <si>
+    <t>5. 我文件化整個架構，讓其他人能一鍵重現。</t>
+  </si>
+  <si>
+    <t>✅ 這樣的 Demo，不管是履歷寫「Side Project」、還是面試拿出來講，都能展現你不只是寫 code，而是有 架構與 DevOps 能力。</t>
+  </si>
+  <si>
+    <t>🎯 就你的 Demo 來看</t>
+  </si>
+  <si>
+    <t>如果重點是「業界普遍熟悉、能快速上手」 → MySQL ✅</t>
+  </si>
+  <si>
+    <t>面試官幾乎不用解釋，所有人都懂。</t>
+  </si>
+  <si>
+    <t>適合 CRUD + 基本交易，展示「K8s + CI/CD」就夠。</t>
+  </si>
+  <si>
+    <t>如果重點是「展示架構思維 &amp; 技術選型能力」 → PostgreSQL ✅</t>
+  </si>
+  <si>
+    <t>你可以說：</t>
+  </si>
+  <si>
+    <t>「我選 PostgreSQL，是因為它在 JSONB 與全文檢索上能同時 cover SQL 與類 NoSQL 場景，適合混合型應用。」</t>
+  </si>
+  <si>
+    <t>這會比「我用 MySQL 因為大家都用」更亮眼。</t>
+  </si>
+  <si>
+    <t>✅ 我的建議</t>
+  </si>
+  <si>
+    <t>因為你這個 Demo 是為了 架構展示 + 求職加分，我會推薦你用 PostgreSQL：</t>
+  </si>
+  <si>
+    <t>1. 在日本與國際大廠（金融、AI、資料密集公司），PostgreSQL 的接受度很高。</t>
+  </si>
+  <si>
+    <t>2. 你可以順便展示一些 進階功能（例如：JSONB 存事件 log、全文檢索 API）。</t>
+  </si>
+  <si>
+    <t>3. 在面試時比較有得講，不只是「我用了最常見的 MySQL」。</t>
+  </si>
+  <si>
+    <t>🔮 最佳策略</t>
+  </si>
+  <si>
+    <t>主要 DB：PostgreSQL（核心 CRUD + JSONB / 檢索）</t>
+  </si>
+  <si>
+    <t>輔助快取/非關聯式：Redis（展示多樣化存取模型）</t>
+  </si>
+  <si>
+    <t>這樣你可以在面試時說：</t>
+  </si>
+  <si>
+    <t>「主要業務資料我放 PostgreSQL，因為它能同時處理結構化與 JSONB 半結構化資料。</t>
+  </si>
+  <si>
+    <t>為了加速，我另外用 Redis 做快取，這樣可以展示不同資料庫選型的思維。」</t>
+  </si>
+  <si>
+    <t>要不要我幫你整理一個 「PostgreSQL + Redis」在 Demo 系統的分工設計表？</t>
+  </si>
+  <si>
+    <t>這樣你就能直接把它放到架構圖和 README 裡，講解時更有層次。</t>
+  </si>
+  <si>
+    <t>你說：</t>
+  </si>
+  <si>
+    <t>好 幫我整理一下</t>
+  </si>
+  <si>
+    <t>ChatGPT 說：</t>
+  </si>
+  <si>
+    <t>太好了 👍 我幫你整理一個 「PostgreSQL + Redis 在 Demo 系統的分工設計表」，這樣你在 README 或面試時能清楚說明 為什麼這樣選型。</t>
+  </si>
+  <si>
+    <t>🗄️ PostgreSQL + Redis 分工設計表</t>
+  </si>
+  <si>
+    <t>層面</t>
+  </si>
+  <si>
+    <t>PostgreSQL（關聯式主資料庫）</t>
+  </si>
+  <si>
+    <t>Redis（非關聯式快取 / Key-Value store）</t>
+  </si>
+  <si>
+    <t>定位</t>
+  </si>
+  <si>
+    <t>系統的「真實來源」(System of Record)</t>
+  </si>
+  <si>
+    <t>輔助角色，加速讀取、減少 DB 壓力</t>
+  </si>
+  <si>
+    <t>存放資料</t>
+  </si>
+  <si>
+    <t>- 使用者帳號、密碼（hash）</t>
+  </si>
+  <si>
+    <t>- 主要業務資料（例如短網址 mapping、待辦事項）</t>
+  </si>
+  <si>
+    <t>- 系統事件紀錄（transaction log）</t>
+  </si>
+  <si>
+    <t>- 熱門查詢結果快取（短網址查詢結果 / 待辦清單列表）</t>
+  </si>
+  <si>
+    <t>- Session / Token 快取（登入狀態）</t>
+  </si>
+  <si>
+    <t>- 限流（Rate Limiting counter）</t>
+  </si>
+  <si>
+    <t>資料型態</t>
+  </si>
+  <si>
+    <t>- 結構化表格 (Users, Tasks, UrlMapping)</t>
+  </si>
+  <si>
+    <t>- 半結構化 JSONB 欄位（事件 log、metadata）</t>
+  </si>
+  <si>
+    <t>- Key-Value</t>
+  </si>
+  <si>
+    <t>- TTL 到期機制（快取自動過期）</t>
+  </si>
+  <si>
+    <t>- 計數器（Page views, API hits）</t>
+  </si>
+  <si>
+    <t>優勢展示</t>
+  </si>
+  <si>
+    <t>- 關聯查詢 (JOIN)</t>
+  </si>
+  <si>
+    <t>- 交易一致性 (ACID)</t>
+  </si>
+  <si>
+    <t>- JSONB：同時處理 SQL + NoSQL</t>
+  </si>
+  <si>
+    <t>- 超快讀寫 (in-memory)</t>
+  </si>
+  <si>
+    <t>- 自動過期適合快取</t>
+  </si>
+  <si>
+    <t>- 適合限流與排行榜場景</t>
+  </si>
+  <si>
+    <t>架構角色</t>
+  </si>
+  <si>
+    <t>核心數據庫（必須保證一致性與持久化）</t>
+  </si>
+  <si>
+    <t>快取 / 暫存層（失效可回 DB 重建）</t>
+  </si>
+  <si>
+    <t>示範價值</t>
+  </si>
+  <si>
+    <t>展示你能處理 正規化資料設計 + 半結構化資料 (JSONB)</t>
+  </si>
+  <si>
+    <t>展示你理解 高併發場景下的快取策略、限流、Session 管理</t>
+  </si>
+  <si>
+    <t>🔧 Demo 系統應用案例</t>
+  </si>
+  <si>
+    <t>短網址服務 (URL Shortener)</t>
+  </si>
+  <si>
+    <t>PostgreSQL：</t>
+  </si>
+  <si>
+    <t>Table: url_mapping(id, original_url, short_code, created_at)</t>
+  </si>
+  <si>
+    <t>JSONB: access_logs 存取紀錄（IP, UserAgent, Time）</t>
+  </si>
+  <si>
+    <t>Redis：</t>
+  </si>
+  <si>
+    <t>快取 short_code → original_url 映射，避免每次查 DB</t>
+  </si>
+  <si>
+    <t>計算點擊次數（incr short_code:views）</t>
+  </si>
+  <si>
+    <t>待辦清單 (ToDo App)</t>
+  </si>
+  <si>
+    <t>Table: tasks(id, user_id, title, status, created_at)</t>
+  </si>
+  <si>
+    <t>快取使用者的任務列表，避免 DB 熱點查詢</t>
+  </si>
+  <si>
+    <t>存 JWT / Session token，做登入驗證</t>
+  </si>
+  <si>
+    <t>影像上傳 / 縮圖服務</t>
+  </si>
+  <si>
+    <t>Table: images(id, user_id, original_path, status, created_at)</t>
+  </si>
+  <si>
+    <t>任務佇列（簡單替代 MQ，存待處理圖片的 ID）</t>
+  </si>
+  <si>
+    <t>短期快取縮圖下載連結（有 TTL，過期自動清掉）</t>
+  </si>
+  <si>
+    <t>📖 面試時的敘事話術</t>
+  </si>
+  <si>
+    <t>你可以這樣說：</t>
+  </si>
+  <si>
+    <t>「我在系統裡使用了兩種不同的資料存取模型。</t>
+  </si>
+  <si>
+    <t>核心的使用者與業務資料放在 PostgreSQL，因為它能提供交易一致性，也能利用 JSONB 存半結構化資料。</t>
+  </si>
+  <si>
+    <t>但像短網址的查詢、登入 Session、點擊次數，這些高頻操作就放在 Redis，因為它在記憶體裡速度非常快，還能利用 TTL 自動清除。</t>
+  </si>
+  <si>
+    <t>這樣的設計讓系統既可靠又能在高併發場景下保持效能。」</t>
+  </si>
+  <si>
+    <t>✅ 這樣的分工能突顯：</t>
+  </si>
+  <si>
+    <t>你了解 關聯式 vs 非關聯式的適用場景</t>
+  </si>
+  <si>
+    <t>你能做 架構選型（而不是盲目選一個 DB）</t>
+  </si>
+  <si>
+    <t>你能在面試時「有得講」，而不是只有 CRUD Demo</t>
   </si>
 </sst>
 </file>
@@ -529,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:N15"/>
+  <dimension ref="C3:N122"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -602,6 +1611,246 @@
         <v>12</v>
       </c>
     </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I46" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I61" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I62" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I64" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I66" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I68" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I70" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I71" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I75" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I77" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I79" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I81" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I83" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I85" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I87" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I89" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I93" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I95" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I97" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I100" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I102" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I104" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I108" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I110" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I113" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I115" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I117" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I120" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I122" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -609,11 +1858,1475 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A66081-3D87-44B0-A389-79D5CF7786BD}">
+  <dimension ref="C3:E565"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="L416" sqref="L416"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="5.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C123" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C124" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C125" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C126" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C127" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C128" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C206" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C220" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C222" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C223" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C224" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C228" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C232" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C234" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C236" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C238" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C248" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C250" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C252" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C254" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C256" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C260" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C264" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C266" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C267" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C268" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C269" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C270" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C271" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C272" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C317" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C331" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C333" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C335" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C337" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C339" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C341" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C343" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C347" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C349" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C351" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C353" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C355" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C357" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C359" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C361" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C363" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C365" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C367" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C369" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C371" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C373" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C375" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C377" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C379" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C381" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C383" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C385" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C387" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C389" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C391" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C393" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C397" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C399" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C401" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C403" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C405" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C407" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C409" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C413" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C417" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C419" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C423" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C425" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C427" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C431" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C433" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C435" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C439" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C441" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C443" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C445" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C447" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C451" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C453" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C455" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C457" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C459" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C460" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C464" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="465" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C465" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="467" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C467" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="469" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C469" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="471" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C471" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="473" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C473" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="477" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C477" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="479" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C479" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="480" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C480" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="481" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C481" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="482" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D482" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="483" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D483" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="484" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C484" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="485" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D485" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="486" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E486" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="487" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C487" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="488" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D488" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="489" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D489" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="490" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C490" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="491" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C491" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="494" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C494" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="496" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C496" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C498" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C502" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C504" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C506" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C510" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C512" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C514" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C516" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C520" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C522" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C526" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C528" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C530" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C532" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C536" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C538" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C542" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C544" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C548" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C550" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C552" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C553" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C554" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C555" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C559" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C561" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C563" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C565" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DF67B3-24D1-41C1-9EFB-DDA31C274479}">
   <dimension ref="C5:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/project_document/project_plan_document.xlsx
+++ b/project_document/project_plan_document.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cliff_studio_project_2025\project_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8459865A-D572-4AB7-A3DA-A081F79BE53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AE74AC-FF9D-455E-9D3A-DDBB795C2AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="3855" windowWidth="19425" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="330" windowWidth="21840" windowHeight="14775" tabRatio="706" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトの計画" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="将来応募したい会社" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId2"/>
+    <sheet name="プロジェクトの計画_バックアップ" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="短縮ユーアールエル" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="742">
   <si>
     <t>使う技術</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,1119 +91,2600 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>google japan</t>
+    <t>Java/Spring Boot + REST + PostgreSQL + Docker + GitHub Actions +（可選 AWS）</t>
+  </si>
+  <si>
+    <t>例子：URL 短網址服務 / 待辦清單（含用戶、權限、排序/搜尋）/ 影像上傳與縮圖管線（S3、SQS 或 Kafka 事件流，若你想展示分散式）。</t>
+  </si>
+  <si>
+    <t>里程碑</t>
+  </si>
+  <si>
+    <t>必備產出清單</t>
+  </si>
+  <si>
+    <t>公開 Repo（清晰 README + 架構圖 + ADR/設計取捨）</t>
+  </si>
+  <si>
+    <t>Demo 影片（2–3 分鐘）</t>
+  </si>
+  <si>
+    <t>自動化測試 &amp; CI</t>
+  </si>
+  <si>
+    <t>一張「前後對比/指標圖」或壓測報告（可簡單）</t>
+  </si>
+  <si>
+    <t>發佈貼文（LinkedIn/Blog），方便面試官點進來看</t>
+  </si>
+  <si>
+    <t>W1：定題 + 需求 10 行；畫簡單架構圖；定義 3 個展示用 API 與成功指標（如 P95 latency、QPS 目標）。</t>
+  </si>
+  <si>
+    <t>W2：把「最小功能」做完：資料模型、CRUD、單元測試 ≥70% 覆蓋、Docker 一鍵啟動。</t>
+  </si>
+  <si>
+    <t>W3：加入觀測性（/health、結構化日誌、簡單指標），補 README（啟動、測試、架構圖、設計取捨）。</t>
+  </si>
+  <si>
+    <t>W4：上 GitHub 公開、接 GitHub Actions CI；錄 2–3 分鐘 Demo 影片；寫 1 篇技術筆記。</t>
+  </si>
+  <si>
+    <t>W5：邀 2 位同行/學長姐 Code Review；依意見修一版；補負載測試腳本（k6/JMeter）與結果。</t>
+  </si>
+  <si>
+    <t>W6：整理作品說明頁（中/英/日擇二）：問題背景→架構→技術要點→指標→未來改進；把連結放進履歷與 LinkedIn。</t>
+  </si>
+  <si>
+    <t>路線選擇</t>
+  </si>
+  <si>
+    <t>A) 本機/單機示範（最快）</t>
+  </si>
+  <si>
+    <t>k3d 或 kind 起一個本機叢集</t>
+  </si>
+  <si>
+    <t>NGINX Ingress + Metrics Server</t>
+  </si>
+  <si>
+    <t>Postgres 用 StatefulSet（或乾脆用 Docker 外部 DB 也可以）</t>
+  </si>
+  <si>
+    <t>透過 Skaffold 或 kubectl kustomize 做本機快速迭代</t>
+  </si>
+  <si>
+    <t>👉 適合錄 Demo 影片與寫技術文：你能完整展示從 Docker → K8s 的部署流程與自動擴縮。</t>
+  </si>
+  <si>
+    <t>B) 雲端展示（求職更亮眼）</t>
+  </si>
+  <si>
+    <t>EKS / GKE / AKS 擇一（或用一台便宜 VPS + k3s）</t>
+  </si>
+  <si>
+    <t>影像推到 GHCR / Docker Hub</t>
+  </si>
+  <si>
+    <t>GitHub Actions：build → push → deploy 到 K8s</t>
+  </si>
+  <si>
+    <t>👉 可以給出「可瀏覽 URL」與 一鍵重佈署，面試超好講。</t>
+  </si>
+  <si>
+    <t>最小可展示的 K8s 清單（你需要的就這些）</t>
+  </si>
+  <si>
+    <t>1. Deployment（你的 Spring Boot 服務）</t>
+  </si>
+  <si>
+    <t>2. Service (ClusterIP)（供 Ingress 轉發）</t>
+  </si>
+  <si>
+    <t>3. Ingress（對外入口；本機用 NGINX Ingress）</t>
+  </si>
+  <si>
+    <t>4. ConfigMap（應用設定）</t>
+  </si>
+  <si>
+    <t>5. Secret（DB 密碼、JWT 秘鑰…）</t>
+  </si>
+  <si>
+    <t>6. HorizontalPodAutoscaler (HPA)（展示伸縮）</t>
+  </si>
+  <si>
+    <t>7. Postgres</t>
+  </si>
+  <si>
+    <t>Demo 可用 StatefulSet + PVC；</t>
+  </si>
+  <si>
+    <t>上雲建議用託管 DB（RDS / Cloud SQL），K8s 只放應用。</t>
+  </si>
+  <si>
+    <t>8. Resource requests/limits（讓 HPA/排程更合理）</t>
+  </si>
+  <si>
+    <t>GitHub Actions（CI/CD 思路）</t>
+  </si>
+  <si>
+    <t>1. CI：建置 + 測試 + 建 Docker image → 推到 GHCR/Docker Hub</t>
+  </si>
+  <si>
+    <t>2. CD：對 main 或 tag 觸發，用 kubectl 或 helm upgrade 部署</t>
+  </si>
+  <si>
+    <t>雲端叢集用 OIDC 或 Kubeconfig Secret</t>
+  </si>
+  <si>
+    <t>本機演示可改為手動 make deploy</t>
+  </si>
+  <si>
+    <t>風險與簡化策略</t>
+  </si>
+  <si>
+    <t>K8s 最容易失控在「功能太多」。先達成：可外網訪問 + HPA + 滾動升級，其餘（Service Mesh、Prometheus/Grafana、Helm chart 化）放第二階段。</t>
+  </si>
+  <si>
+    <t>資料庫不建議在 K8s 自管（為了穩定與成本），上雲就用託管 DB。</t>
+  </si>
+  <si>
+    <t>給面試官的敘事角度（你可以這樣講）</t>
+  </si>
+  <si>
+    <t>「我用 Spring Boot 做了一個可量化的服務，容器化後用 K8s 部署。為了可維運與擴展，我設定了 requests/limits 與 HPA，並以 Actuator 提供健康探針與指標。CI/CD 方面使用 GitHub Actions 從建置到部署，演示滾動升級與回滾，資料層上雲使用託管 DB 以降低營運風險。」</t>
+  </si>
+  <si>
+    <t>🚀 AWS 部署計畫（示範系統版）</t>
+  </si>
+  <si>
+    <t>1. 基礎環境選擇</t>
+  </si>
+  <si>
+    <t>EC2 類型：</t>
+  </si>
+  <si>
+    <t>t3.small（2 vCPU / 2GB RAM）：約 USD 15–20/月 → 足夠跑 Spring Boot + PostgreSQL + Nginx。</t>
+  </si>
+  <si>
+    <t>若需要再多一點餘裕：t3.medium（2 vCPU / 4GB RAM），約 USD 30/月。</t>
+  </si>
+  <si>
+    <t>OS：Amazon Linux 2 / Ubuntu 22.04 LTS。</t>
+  </si>
+  <si>
+    <t>儲存：20 GB gp3 EBS（每月約 2 美元）。</t>
+  </si>
+  <si>
+    <t>網路：一個彈性 IP（Elastic IP，免費）。</t>
+  </si>
+  <si>
+    <t>👉 先用 EC2 + Docker/Kubernetes，暫時不用 EKS，因為 EKS 固定就要多收 70+ USD/月，不適合示範系統。</t>
+  </si>
+  <si>
+    <t>2. 架構規劃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[GitHub Actions] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     v</t>
+  </si>
+  <si>
+    <t>[Docker Build + Push to GHCR]</t>
+  </si>
+  <si>
+    <t>[AWS EC2 (t3.small)] -- [k3s/kind]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [Spring Boot Service + PostgreSQL]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [NGINX Ingress Controller]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  https://demo.yourdomain.com</t>
+  </si>
+  <si>
+    <t>3. 部署步驟</t>
+  </si>
+  <si>
+    <t>A) 準備 EC2</t>
+  </si>
+  <si>
+    <t>1. 建立 EC2 instance（Ubuntu 22.04）。</t>
+  </si>
+  <si>
+    <t>2. 開啟 Security Group port：22 (SSH), 80 (HTTP), 443 (HTTPS)。</t>
+  </si>
+  <si>
+    <t>3. 安裝基礎工具：docker, docker-compose, kubectl, k3s（或 kind）。</t>
+  </si>
+  <si>
+    <t>B) 容器化應用</t>
+  </si>
+  <si>
+    <t>1. 在本地先寫好 Dockerfile（Spring Boot + JDK17 + JAR）。</t>
+  </si>
+  <si>
+    <t>2. PostgreSQL 可以：</t>
+  </si>
+  <si>
+    <t>放在同一台 EC2 用 Docker 容器；</t>
+  </si>
+  <si>
+    <t>或直接用 AWS RDS Free Tier（更專業，但多一點錢）。</t>
+  </si>
+  <si>
+    <t>3. 測試 docker-compose up 可以跑通。</t>
+  </si>
+  <si>
+    <t>C) Kubernetes（選擇性）</t>
+  </si>
+  <si>
+    <t>如果你想展示 K8s：在 EC2 上裝 k3s（輕量 K8s）。</t>
+  </si>
+  <si>
+    <t>部署 Deployment / Service / Ingress YAML。</t>
+  </si>
+  <si>
+    <t>開一個 Nginx Ingress Controller。</t>
+  </si>
+  <si>
+    <t>D) 網域與 HTTPS</t>
+  </si>
+  <si>
+    <t>1. 註冊一個便宜網域（Route53 或 Freenom 免費網域）。</t>
+  </si>
+  <si>
+    <t>2. 在 Route53 建立 DNS A record → 指向你的 EC2 Public IP。</t>
+  </si>
+  <si>
+    <t>3. 用 Certbot + Nginx Ingress → 免費的 Let’s Encrypt HTTPS。</t>
+  </si>
+  <si>
+    <t>E) CI/CD</t>
+  </si>
+  <si>
+    <t>GitHub Actions workflow：</t>
+  </si>
+  <si>
+    <t>1. Push → 建置 Docker image → 推到 GHCR（GitHub Container Registry）。</t>
+  </si>
+  <si>
+    <t>2. SSH 到 EC2 → kubectl rollout restart or docker-compose pull &amp;&amp; up -d。</t>
+  </si>
+  <si>
+    <t>範例（最簡版）：</t>
+  </si>
+  <si>
+    <t>name: CI/CD</t>
+  </si>
+  <si>
+    <t>on:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  push:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    branches: [ main ]</t>
+  </si>
+  <si>
+    <t>jobs:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  build-and-deploy:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    runs-on: ubuntu-latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    steps:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - uses: actions/checkout@v4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - name: Build &amp; Push Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        run: |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          docker build -t ghcr.io/${{ github.repository }}:latest .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          echo ${{ secrets.GITHUB_TOKEN }} | docker login ghcr.io -u ${{ github.actor }} --password-stdin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          docker push ghcr.io/${{ github.repository }}:latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - name: Deploy to EC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        uses: appleboy/ssh-action@v1.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        with:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          host: ${{ secrets.EC2_HOST }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          username: ubuntu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          key: ${{ secrets.EC2_SSH_KEY }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          script: |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            docker pull ghcr.io/${{ github.repository }}:latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            docker-compose -f ~/app/docker-compose.yml up -d</t>
+  </si>
+  <si>
+    <t>4. 成本預估（每月）</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t>EC2 (t3.small, 20GB EBS)</t>
+  </si>
+  <si>
+    <t>~USD 17</t>
+  </si>
+  <si>
+    <t>Elastic IP</t>
+  </si>
+  <si>
+    <t>流量（50GB/月內）</t>
+  </si>
+  <si>
+    <t>幾乎免費</t>
+  </si>
+  <si>
+    <t>Route53 網域</t>
+  </si>
+  <si>
+    <t>~USD 1/月</t>
+  </si>
+  <si>
+    <t>總計</t>
+  </si>
+  <si>
+    <t>~USD 18–20</t>
+  </si>
+  <si>
+    <t>（若加 RDS 最便宜版，會再多 ~15 美元/月。）</t>
+  </si>
+  <si>
+    <t>5. Demo 包裝方式（面試可用）</t>
+  </si>
+  <si>
+    <t>「我做了一個 Spring Boot + PostgreSQL 的服務，容器化後部署在 AWS EC2 上，使用 Docker/Kubernetes 管理。CI/CD 採 GitHub Actions，自動部署並能滾動升級。Ingress 綁定自有網域並加上 HTTPS，系統可透過公開網址存取。」</t>
+  </si>
+  <si>
+    <t>你可以提供：</t>
+  </si>
+  <si>
+    <t>GitHub Repo（公開程式碼 + README）</t>
+  </si>
+  <si>
+    <t>Demo 網址</t>
+  </si>
+  <si>
+    <t>短 Demo 影片（2 分鐘，展示 CI/CD + API 呼叫）</t>
+  </si>
+  <si>
+    <t>⚡ 結論：</t>
+  </si>
+  <si>
+    <t>👉 AWS EC2 + Docker/K8s + GitHub Actions + 自有網域 = 成本低、能展示專業度、面試好講。</t>
+  </si>
+  <si>
+    <t>👉 RDS / EKS 可放在第二階段，若時間不夠先不用。</t>
+  </si>
+  <si>
+    <t>🎯 建議你 Demo 的重點（工程師＋架構思維）</t>
+  </si>
+  <si>
+    <t>1. 容器化 &amp; 部署能力</t>
+  </si>
+  <si>
+    <t>後端、前端都 Docker 化。</t>
+  </si>
+  <si>
+    <t>CI/CD pipeline 自動建置 &amp; 部署。</t>
+  </si>
+  <si>
+    <t>2. Kubernetes &amp; 自動擴縮</t>
+  </si>
+  <si>
+    <t>Deployment + Service + Ingress 基本功。</t>
+  </si>
+  <si>
+    <t>HPA (Horizontal Pod Autoscaler) 示範 CPU / QPS 下的自動 scale out。</t>
+  </si>
+  <si>
+    <t>3. 分散式/解耦設計</t>
+  </si>
+  <si>
+    <t>一個主要服務（核心 API）+ 一個背景工作（worker）。</t>
+  </si>
+  <si>
+    <t>4. 壓力測試與流量分流</t>
+  </si>
+  <si>
+    <t>k6/JMeter 壓測報告。</t>
+  </si>
+  <si>
+    <t>示範 scale out 前後的差異。</t>
+  </si>
+  <si>
+    <t>5. 資料庫設計</t>
+  </si>
+  <si>
+    <t>主 DB：PostgreSQL。</t>
+  </si>
+  <si>
+    <t>額外展示：NoSQL（Redis 或 MongoDB）做 cache / session / event log。</t>
+  </si>
+  <si>
+    <t>重點是「選型理由」，說明你如何考量關聯式 vs. 非關聯式。</t>
+  </si>
+  <si>
+    <t>6. 觀測性 (Observability)</t>
+  </si>
+  <si>
+    <t>Log aggregation（簡單 stdout + ELK/EFK 可選）</t>
+  </si>
+  <si>
+    <t>7. 文件與架構圖</t>
+  </si>
+  <si>
+    <t>README 清楚說明：架構圖、技術選型、部署流程、CI/CD。</t>
+  </si>
+  <si>
+    <t>這是「面試官最愛看」的部分，因為比功能更能展示思考。</t>
+  </si>
+  <si>
+    <t>用 message queue（Kafka / RabbitMQ / SQS）連接，展示非同步處理。</t>
+  </si>
+  <si>
+    <t>健康檢查 /health</t>
+  </si>
+  <si>
+    <t>Metrics /actuator/prometheus</t>
+  </si>
+  <si>
+    <t>✅ 你 demo 的敘事方式（面試時可以這樣講）</t>
+  </si>
+  <si>
+    <t>「這個系統的功能很簡單，但我設計的重點在於如何讓它能夠在雲端可擴展、可維運。</t>
+  </si>
+  <si>
+    <t>我使用 Docker 把前後端容器化，再用 Kubernetes 部署，設定了自動擴縮與 Ingress。</t>
+  </si>
+  <si>
+    <t>資料存放在 PostgreSQL，並額外加了 Redis 作為快取。</t>
+  </si>
+  <si>
+    <t>背景任務透過 Kafka 處理，確保服務能在高流量下不會被同步請求壓垮。</t>
+  </si>
+  <si>
+    <t>我也做了壓測，展示系統在 scale out 前後的差異，並用 CI/CD pipeline 自動化部署到 AWS。」</t>
+  </si>
+  <si>
+    <t>👉 這種故事比「我做了一個 ToDo app」要有殺傷力太多了。</t>
+  </si>
+  <si>
+    <t>📌 結論</t>
+  </si>
+  <si>
+    <t>你不用花時間在「花俏功能」，CRUD 有就好。</t>
+  </si>
+  <si>
+    <t>把精力放在 Docker → K8s → 分散式 → 壓測 → 架構文件。</t>
+  </si>
+  <si>
+    <t>這樣的 demo 才能真的讓面試官看到你超越一般全端工程師、往系統架構師方向的實力。</t>
+  </si>
+  <si>
+    <t>太好了 🔥 我幫你設計一個 「架構導向 Demo 藍圖」，目標是：功能簡單，但能充分展示 架構設計能力、雲端部署經驗、可擴展性思維。</t>
+  </si>
+  <si>
+    <t>🏗️ 架構導向 Demo 藍圖</t>
+  </si>
+  <si>
+    <t>1. 功能主題（MVP）</t>
+  </si>
+  <si>
+    <t>👉 功能不用複雜，只要「大家懂」＋「能承載架構」</t>
+  </si>
+  <si>
+    <t>短網址服務（縮網址 → 轉址 → 點擊數統計）</t>
+  </si>
+  <si>
+    <t>或 待辦清單（含用戶 / 權限 / 查詢）</t>
+  </si>
+  <si>
+    <t>或 影像上傳 → 壓縮/縮圖 → 下載</t>
+  </si>
+  <si>
+    <t>📌 重點：功能是「載體」，讓你能展示 分散式架構 + DevOps 能力。</t>
+  </si>
+  <si>
+    <t>2. 架構藍圖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [Frontend: React] ----&gt; [API Gateway / Ingress]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ----------------+-------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                |                                   |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      [Spring Boot API]                   [Worker Service]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      (CRUD / REST / GraphQL)             (異步處理: 縮圖/統計)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [PostgreSQL] ----------------------- [Redis/MongoDB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         (持久化資料庫)</t>
+  </si>
+  <si>
+    <t>元件亮點</t>
+  </si>
+  <si>
+    <t>Spring Boot API：核心服務，提供 RESTful API。</t>
+  </si>
+  <si>
+    <t>Worker Service：非同步處理，透過 Kafka/SQS 接收事件。</t>
+  </si>
+  <si>
+    <t>PostgreSQL：主資料庫。</t>
+  </si>
+  <si>
+    <t>Redis/MongoDB：快取或儲存事件日誌。</t>
+  </si>
+  <si>
+    <t>Ingress (NGINX)：K8s 對外入口。</t>
+  </si>
+  <si>
+    <t>CI/CD (GitHub Actions)：自動化 build &amp; deploy。</t>
+  </si>
+  <si>
+    <t>Kubernetes (k3s/EKS)：管理容器 + HPA 自動擴縮。</t>
+  </si>
+  <si>
+    <t>監控：Spring Boot Actuator + Prometheus（可選 Grafana）。</t>
+  </si>
+  <si>
+    <t>3. 技術清單（必備＋加分）</t>
+  </si>
+  <si>
+    <t>必備</t>
+  </si>
+  <si>
+    <t>後端：Java 17 + Spring Boot + Spring Data JPA</t>
+  </si>
+  <si>
+    <t>前端：React (Vite + Tailwind) 簡單 UI</t>
+  </si>
+  <si>
+    <t>資料庫：PostgreSQL</t>
+  </si>
+  <si>
+    <t>容器：Docker + docker-compose</t>
+  </si>
+  <si>
+    <t>CI/CD：GitHub Actions</t>
+  </si>
+  <si>
+    <t>部署：AWS EC2 + k3s（Kubernetes 輕量版）</t>
+  </si>
+  <si>
+    <t>Ingress：NGINX + Let’s Encrypt（免費 HTTPS）</t>
+  </si>
+  <si>
+    <t>加分</t>
+  </si>
+  <si>
+    <t>非同步處理：Kafka 或 SQS + Worker Service</t>
+  </si>
+  <si>
+    <t>NoSQL：Redis (快取 / session)</t>
+  </si>
+  <si>
+    <t>壓測：k6 / JMeter</t>
+  </si>
+  <si>
+    <t>觀測性：Prometheus + Grafana</t>
+  </si>
+  <si>
+    <t>文件：README（架構圖 + 技術選型 + 部署流程）</t>
+  </si>
+  <si>
+    <t>4. Demo 要展示的重點</t>
+  </si>
+  <si>
+    <t>1. 功能跑得起來：能 CRUD 或產生短網址。</t>
+  </si>
+  <si>
+    <t>2. CI/CD：push → 自動 build → deploy → 更新服務。</t>
+  </si>
+  <si>
+    <t>3. K8s HPA：壓測 → Pod 自動擴縮。</t>
+  </si>
+  <si>
+    <t>4. 非同步處理：請求送入 Queue → Worker 消化 → 結果寫回 DB。</t>
+  </si>
+  <si>
+    <t>5. DB 選型解釋：為什麼核心數據用 PostgreSQL、為什麼 cache/log 用 Redis/MongoDB。</t>
+  </si>
+  <si>
+    <t>6. 觀測性：Prometheus 抓 metrics，Grafana 出圖表。</t>
+  </si>
+  <si>
+    <t>7. 架構文件：清楚的架構圖、技術選型、優缺點。</t>
+  </si>
+  <si>
+    <t>5. 六週里程碑（架構導向版）</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>定題（短網址 / ToDo / 影像管線）</t>
+  </si>
+  <si>
+    <t>Spring Boot + PostgreSQL（CRUD MVP）</t>
+  </si>
+  <si>
+    <t>React + 基本 UI</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Docker 化（API + Frontend + DB）</t>
+  </si>
+  <si>
+    <t>docker-compose 本地跑通</t>
+  </si>
+  <si>
+    <t>GitHub Actions：CI (build + test)</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>部署 AWS EC2（Docker Compose → k3s）</t>
+  </si>
+  <si>
+    <t>Ingress + 免費網域 + HTTPS</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>加入 Redis 或 MongoDB</t>
+  </si>
+  <si>
+    <t>非同步處理（Kafka / SQS + Worker Service）</t>
+  </si>
+  <si>
+    <t>CI/CD 自動部署</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>壓測（k6 / JMeter）</t>
+  </si>
+  <si>
+    <t>加 HPA（自動擴縮）</t>
+  </si>
+  <si>
+    <t>加監控（Actuator + Prometheus）</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>文件化（README + 架構圖 + 部署步驟）</t>
+  </si>
+  <si>
+    <t>Demo 錄影（CI/CD 流程 + scale out showcase）</t>
+  </si>
+  <si>
+    <t>發布在 GitHub / LinkedIn</t>
+  </si>
+  <si>
+    <t>6. 面試包裝方式</t>
+  </si>
+  <si>
+    <t>你可以用這個故事線：</t>
+  </si>
+  <si>
+    <t>1. 我選了一個簡單的功能作為案例，但重點在系統設計。</t>
+  </si>
+  <si>
+    <t>2. 我容器化並部署到 AWS，使用 Kubernetes 管理。</t>
+  </si>
+  <si>
+    <t>3. 我設計了異步處理與 cache，展示分散式思維。</t>
+  </si>
+  <si>
+    <t>4. 我做了壓測與自動擴縮，證明系統可伸縮。</t>
+  </si>
+  <si>
+    <t>5. 我文件化整個架構，讓其他人能一鍵重現。</t>
+  </si>
+  <si>
+    <t>✅ 這樣的 Demo，不管是履歷寫「Side Project」、還是面試拿出來講，都能展現你不只是寫 code，而是有 架構與 DevOps 能力。</t>
+  </si>
+  <si>
+    <t>🎯 就你的 Demo 來看</t>
+  </si>
+  <si>
+    <t>如果重點是「業界普遍熟悉、能快速上手」 → MySQL ✅</t>
+  </si>
+  <si>
+    <t>面試官幾乎不用解釋，所有人都懂。</t>
+  </si>
+  <si>
+    <t>適合 CRUD + 基本交易，展示「K8s + CI/CD」就夠。</t>
+  </si>
+  <si>
+    <t>如果重點是「展示架構思維 &amp; 技術選型能力」 → PostgreSQL ✅</t>
+  </si>
+  <si>
+    <t>你可以說：</t>
+  </si>
+  <si>
+    <t>「我選 PostgreSQL，是因為它在 JSONB 與全文檢索上能同時 cover SQL 與類 NoSQL 場景，適合混合型應用。」</t>
+  </si>
+  <si>
+    <t>這會比「我用 MySQL 因為大家都用」更亮眼。</t>
+  </si>
+  <si>
+    <t>✅ 我的建議</t>
+  </si>
+  <si>
+    <t>因為你這個 Demo 是為了 架構展示 + 求職加分，我會推薦你用 PostgreSQL：</t>
+  </si>
+  <si>
+    <t>1. 在日本與國際大廠（金融、AI、資料密集公司），PostgreSQL 的接受度很高。</t>
+  </si>
+  <si>
+    <t>2. 你可以順便展示一些 進階功能（例如：JSONB 存事件 log、全文檢索 API）。</t>
+  </si>
+  <si>
+    <t>3. 在面試時比較有得講，不只是「我用了最常見的 MySQL」。</t>
+  </si>
+  <si>
+    <t>🔮 最佳策略</t>
+  </si>
+  <si>
+    <t>主要 DB：PostgreSQL（核心 CRUD + JSONB / 檢索）</t>
+  </si>
+  <si>
+    <t>輔助快取/非關聯式：Redis（展示多樣化存取模型）</t>
+  </si>
+  <si>
+    <t>這樣你可以在面試時說：</t>
+  </si>
+  <si>
+    <t>「主要業務資料我放 PostgreSQL，因為它能同時處理結構化與 JSONB 半結構化資料。</t>
+  </si>
+  <si>
+    <t>為了加速，我另外用 Redis 做快取，這樣可以展示不同資料庫選型的思維。」</t>
+  </si>
+  <si>
+    <t>要不要我幫你整理一個 「PostgreSQL + Redis」在 Demo 系統的分工設計表？</t>
+  </si>
+  <si>
+    <t>這樣你就能直接把它放到架構圖和 README 裡，講解時更有層次。</t>
+  </si>
+  <si>
+    <t>你說：</t>
+  </si>
+  <si>
+    <t>好 幫我整理一下</t>
+  </si>
+  <si>
+    <t>ChatGPT 說：</t>
+  </si>
+  <si>
+    <t>太好了 👍 我幫你整理一個 「PostgreSQL + Redis 在 Demo 系統的分工設計表」，這樣你在 README 或面試時能清楚說明 為什麼這樣選型。</t>
+  </si>
+  <si>
+    <t>🗄️ PostgreSQL + Redis 分工設計表</t>
+  </si>
+  <si>
+    <t>層面</t>
+  </si>
+  <si>
+    <t>PostgreSQL（關聯式主資料庫）</t>
+  </si>
+  <si>
+    <t>Redis（非關聯式快取 / Key-Value store）</t>
+  </si>
+  <si>
+    <t>定位</t>
+  </si>
+  <si>
+    <t>系統的「真實來源」(System of Record)</t>
+  </si>
+  <si>
+    <t>輔助角色，加速讀取、減少 DB 壓力</t>
+  </si>
+  <si>
+    <t>存放資料</t>
+  </si>
+  <si>
+    <t>- 使用者帳號、密碼（hash）</t>
+  </si>
+  <si>
+    <t>- 主要業務資料（例如短網址 mapping、待辦事項）</t>
+  </si>
+  <si>
+    <t>- 系統事件紀錄（transaction log）</t>
+  </si>
+  <si>
+    <t>- 熱門查詢結果快取（短網址查詢結果 / 待辦清單列表）</t>
+  </si>
+  <si>
+    <t>- Session / Token 快取（登入狀態）</t>
+  </si>
+  <si>
+    <t>- 限流（Rate Limiting counter）</t>
+  </si>
+  <si>
+    <t>資料型態</t>
+  </si>
+  <si>
+    <t>- 結構化表格 (Users, Tasks, UrlMapping)</t>
+  </si>
+  <si>
+    <t>- 半結構化 JSONB 欄位（事件 log、metadata）</t>
+  </si>
+  <si>
+    <t>- Key-Value</t>
+  </si>
+  <si>
+    <t>- TTL 到期機制（快取自動過期）</t>
+  </si>
+  <si>
+    <t>- 計數器（Page views, API hits）</t>
+  </si>
+  <si>
+    <t>優勢展示</t>
+  </si>
+  <si>
+    <t>- 關聯查詢 (JOIN)</t>
+  </si>
+  <si>
+    <t>- 交易一致性 (ACID)</t>
+  </si>
+  <si>
+    <t>- JSONB：同時處理 SQL + NoSQL</t>
+  </si>
+  <si>
+    <t>- 超快讀寫 (in-memory)</t>
+  </si>
+  <si>
+    <t>- 自動過期適合快取</t>
+  </si>
+  <si>
+    <t>- 適合限流與排行榜場景</t>
+  </si>
+  <si>
+    <t>架構角色</t>
+  </si>
+  <si>
+    <t>核心數據庫（必須保證一致性與持久化）</t>
+  </si>
+  <si>
+    <t>快取 / 暫存層（失效可回 DB 重建）</t>
+  </si>
+  <si>
+    <t>示範價值</t>
+  </si>
+  <si>
+    <t>展示你能處理 正規化資料設計 + 半結構化資料 (JSONB)</t>
+  </si>
+  <si>
+    <t>展示你理解 高併發場景下的快取策略、限流、Session 管理</t>
+  </si>
+  <si>
+    <t>🔧 Demo 系統應用案例</t>
+  </si>
+  <si>
+    <t>短網址服務 (URL Shortener)</t>
+  </si>
+  <si>
+    <t>PostgreSQL：</t>
+  </si>
+  <si>
+    <t>Table: url_mapping(id, original_url, short_code, created_at)</t>
+  </si>
+  <si>
+    <t>JSONB: access_logs 存取紀錄（IP, UserAgent, Time）</t>
+  </si>
+  <si>
+    <t>Redis：</t>
+  </si>
+  <si>
+    <t>快取 short_code → original_url 映射，避免每次查 DB</t>
+  </si>
+  <si>
+    <t>計算點擊次數（incr short_code:views）</t>
+  </si>
+  <si>
+    <t>待辦清單 (ToDo App)</t>
+  </si>
+  <si>
+    <t>Table: tasks(id, user_id, title, status, created_at)</t>
+  </si>
+  <si>
+    <t>快取使用者的任務列表，避免 DB 熱點查詢</t>
+  </si>
+  <si>
+    <t>存 JWT / Session token，做登入驗證</t>
+  </si>
+  <si>
+    <t>影像上傳 / 縮圖服務</t>
+  </si>
+  <si>
+    <t>Table: images(id, user_id, original_path, status, created_at)</t>
+  </si>
+  <si>
+    <t>任務佇列（簡單替代 MQ，存待處理圖片的 ID）</t>
+  </si>
+  <si>
+    <t>短期快取縮圖下載連結（有 TTL，過期自動清掉）</t>
+  </si>
+  <si>
+    <t>📖 面試時的敘事話術</t>
+  </si>
+  <si>
+    <t>你可以這樣說：</t>
+  </si>
+  <si>
+    <t>「我在系統裡使用了兩種不同的資料存取模型。</t>
+  </si>
+  <si>
+    <t>核心的使用者與業務資料放在 PostgreSQL，因為它能提供交易一致性，也能利用 JSONB 存半結構化資料。</t>
+  </si>
+  <si>
+    <t>但像短網址的查詢、登入 Session、點擊次數，這些高頻操作就放在 Redis，因為它在記憶體裡速度非常快，還能利用 TTL 自動清除。</t>
+  </si>
+  <si>
+    <t>這樣的設計讓系統既可靠又能在高併發場景下保持效能。」</t>
+  </si>
+  <si>
+    <t>✅ 這樣的分工能突顯：</t>
+  </si>
+  <si>
+    <t>你了解 關聯式 vs 非關聯式的適用場景</t>
+  </si>
+  <si>
+    <t>你能做 架構選型（而不是盲目選一個 DB）</t>
+  </si>
+  <si>
+    <t>你能在面試時「有得講」，而不是只有 CRUD Demo</t>
+  </si>
+  <si>
+    <t>部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>六本目</t>
+    <t>フロントエンド言語</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Amazon japan</t>
+    <t>バックグランド言語</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Microsoft Japan</t>
+    <t>サーバー</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Meta</t>
+    <t>データベース</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Salesforce Japan</t>
+    <t>仮想化技術</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Adobe Japan</t>
+    <t>技術</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Datadog Japan</t>
+    <t>Docker、Kubernetes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Elastic</t>
+    <t>クラウド</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Snowflake</t>
+    <t>UIUX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SmartHR</t>
+    <t>Java、Spring Boot、RESTAPI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sansan</t>
+    <t>PostgreSQL、Redis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>freee</t>
+    <t>React、typescript、Express.js、Next.js</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LinkedIn</t>
+    <r>
+      <t xml:space="preserve">W2：把「最小功能」做完：資料模型、CRUD、單元測試 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>70% 覆蓋、Docker 一鍵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>啟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>動。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W3：加入觀測性（/health、結構化日誌、簡單指標），補 README（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>啟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>動、測試、架構圖、設計取捨）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W4：上 GitHub 公開、接 GitHub Actions CI；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>錄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 2–3 分鐘 Demo 影片；寫 1 篇技術筆記。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W5：邀 2 位同行/學長姐 Code Review；依意見修一版；補負載測試</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>腳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>本（k6/JMeter）與結果。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W6：整理作品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>說</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>明頁（中/英/日擇二）：問題背景→架構→技術要點→指標→未來改進；把連結放進履</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>歷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>與 LinkedIn。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>必備</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>產</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>出清單</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>發</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>佈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>貼文（LinkedIn/Blog），方便面試官點進來看</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>👉 適合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>錄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Demo 影片與寫技術文：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>能完整展示從 Docker → K8s 的部署流程與自動擴縮。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>👉 可以給出「可瀏覽 URL」與 一鍵重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>佈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>署，面試超好講。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最小可展示的 K8s 清單（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>需要的就這些）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Deployment（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的 Spring Boot 服務）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>給面試官的敘事角度（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>可以這樣講）</t>
+    </r>
+  </si>
+  <si>
+    <t>システム機能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wantedly</t>
+    <t>ゲストアカウント</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Green</t>
+    <t>管理者アカウント</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BizReach</t>
+    <r>
+      <t>例子：URL 短網址服務 / 待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>清單（含用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>戶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、權限、排序/搜尋）/ 影像上傳與縮圖管線（S3、SQS 或 Kafka 事件流，若</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>想展示分散式）。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Leverages</t>
+    <t>但我好奇一件事情 我不是服務商 我只是租借一個AWS的伺服器 這樣的話我有辦法去實作短網址的功能?</t>
+  </si>
+  <si>
+    <t>已思考 18s</t>
+  </si>
+  <si>
+    <t>下面給你兩種做法：從最簡到可擴充。</t>
+  </si>
+  <si>
+    <t>方案A：最小可用（單台 EC2 就能跑）</t>
+  </si>
+  <si>
+    <t>適合想快做出 Demo / PoC。</t>
+  </si>
+  <si>
+    <t>你需要</t>
+  </si>
+  <si>
+    <t>2. 一台 EC2（或用 Lightsail 也可）</t>
+  </si>
+  <si>
+    <t>3. 一個小型 DB（可先用 SQLite / MySQL；要快也能用 Redis）</t>
+  </si>
+  <si>
+    <t>4. Nginx（做反向代理 + TLS）＋ 你的 Web 程式（Node/Go/Java 皆可）</t>
+  </si>
+  <si>
+    <t>步驟</t>
+  </si>
+  <si>
+    <t>2. 申請憑證（TLS/SSL）：用 Let’s Encrypt 或 ACM（若前面掛 ALB/CloudFront）。</t>
+  </si>
+  <si>
+    <t>3. 寫兩個 API：</t>
+  </si>
+  <si>
+    <t>4. Nginx 轉發到你的程式；或程式直接綁 443（不建議，維運差）。</t>
+  </si>
+  <si>
+    <t>超精簡範例（Node.js/Express）</t>
+  </si>
+  <si>
+    <t>import express from "express";</t>
+  </si>
+  <si>
+    <t>import { customAlphabet } from "nanoid"; // 產短碼：Base62 也行</t>
+  </si>
+  <si>
+    <t>const app = express();</t>
+  </si>
+  <si>
+    <t>app.use(express.json());</t>
+  </si>
+  <si>
+    <t>const nano = customAlphabet("0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ", 7);</t>
+  </si>
+  <si>
+    <t>const db = new Map(); // PoC 先用記憶體；正式換 MySQL/Redis</t>
+  </si>
+  <si>
+    <t>app.post("/shorten", (req, res) =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const { url } = req.body;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const code = nano();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  db.set(code, url);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  res.json({ shortUrl: `https://sho.rt/${code}` });</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>app.get("/:code", (req, res) =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const url = db.get(req.params.code);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (!url) return res.status(404).send("Not found");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // 永久或暫時導向：產品期建議 302，確定穩定後再 301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  res.redirect(302, url);</t>
+  </si>
+  <si>
+    <t>app.listen(3000);</t>
+  </si>
+  <si>
+    <t>資料表（MySQL 例）</t>
+  </si>
+  <si>
+    <t>CREATE TABLE short_urls (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  id BIGINT PRIMARY KEY AUTO_INCREMENT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  code VARCHAR(12) UNIQUE NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  long_url TEXT NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  user_id BIGINT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  expire_at DATETIME NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  created_at DATETIME NOT NULL DEFAULT CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX idx_code ON short_urls(code);</t>
+  </si>
+  <si>
+    <t>方案B：雲原生可擴充（免自管伺服器）</t>
+  </si>
+  <si>
+    <t>適合之後要撐流量、好維運、便宜空載成本。</t>
+  </si>
+  <si>
+    <t>元件</t>
+  </si>
+  <si>
+    <t>請求路徑</t>
+  </si>
+  <si>
+    <t>使用者 → CloudFront（TLS 終結）→ API Gateway → Lambda</t>
+  </si>
+  <si>
+    <t>優點</t>
+  </si>
+  <si>
+    <t>幾乎免管機器、可自動擴充。</t>
+  </si>
+  <si>
+    <t>開銷跟流量成正比，小量超便宜。</t>
+  </si>
+  <si>
+    <t>關鍵疑惑一次解答</t>
+  </si>
+  <si>
+    <t>Q1. 為什麼不需要再去註冊很多網域？</t>
+  </si>
+  <si>
+    <t>短碼是你在資料庫裡維護的「代碼 → 原始URL」對照；不是每個短網址都佔一個新網域。</t>
+  </si>
+  <si>
+    <t>Q2. 點擊短網址，封包會到哪？</t>
+  </si>
+  <si>
+    <t>（所以你也能在這一步做統計、風控、黑名單等。）</t>
+  </si>
+  <si>
+    <t>Q3. 沒有網域可不可以做？</t>
+  </si>
+  <si>
+    <t>很醜、不可靠、也不「短」。</t>
+  </si>
+  <si>
+    <t>換機器/縮放時會變動。</t>
+  </si>
+  <si>
+    <t>實務上強烈建議買一個短網域。</t>
+  </si>
+  <si>
+    <t>實作細節建議（面試友善）</t>
+  </si>
+  <si>
+    <t>避免碰撞：用資料庫唯一索引，衝突就重試。</t>
+  </si>
+  <si>
+    <t>規則：Base62、或用雪花 ID / ULID 再轉碼。</t>
+  </si>
+  <si>
+    <t>可加「自訂碼」：用戶自選（要驗重）。</t>
+  </si>
+  <si>
+    <t>點擊數、Referer、User-Agent、國家/城市（可用 CloudFront header、GeoIP）、時間序列（Kinesis / Firehose → S3 / Athena）。</t>
+  </si>
+  <si>
+    <t>Rate limit（API Gateway usage plan / WAF）。</t>
+  </si>
+  <si>
+    <t>濫用偵測（釣魚/惡意網址黑名單）。</t>
+  </si>
+  <si>
+    <t>長網址白名單/黑名單規則。</t>
+  </si>
+  <si>
+    <t>XSS/開放轉址警示（顯示中間頁 optional）。</t>
+  </si>
+  <si>
+    <t>你可以這樣開始（最短路徑）</t>
+  </si>
+  <si>
+    <t>1. 買個短網域（Route53）</t>
+  </si>
+  <si>
+    <t>2. 起一台 Lightsail 或 EC2（Ubuntu），裝 Nginx + Node/Java</t>
+  </si>
+  <si>
+    <t>3. 貼上方最小程式 → 把網域導到機器 → 申請 TLS</t>
+  </si>
+  <si>
+    <t>4. 可以用了！接著再補：DB、快取、統計、管理後台</t>
+  </si>
+  <si>
+    <t>可以的！就算你不是「服務商」，只要你有一台 AWS 主機（或用無伺服器組合），一樣能自己做一個短網址服務。關鍵在於：你要有一個「自己掌控的短網域」，再用程式把「短碼 → 原始網址」的對照表做成 HTTP 301/302 重新導向（redirect）。</t>
+  </si>
+  <si>
+    <t>1. 一個短網域（例如 sho.rt；用 Route53 或任一域名註冊商買）</t>
+  </si>
+  <si>
+    <t>1. 註冊短網域 → 在 DNS（Route53）把 A/AAAA 指到你的 EC2（固定 IP 可用 Elastic IP）。</t>
+  </si>
+  <si>
+    <t>POST /shorten：輸入長網址，產生短碼並存 DB。</t>
+  </si>
+  <si>
+    <t>GET /{code}：查 DB，把使用者 301/302 redirect 到長網址。</t>
+  </si>
+  <si>
+    <t>5. （可選）把 code → URL 放 Redis 當快取，減少 DB 查詢。</t>
+  </si>
+  <si>
+    <t>Route53（你的短網域 DNS）</t>
+  </si>
+  <si>
+    <t>CloudFront（全球邊緣加速，TLS 憑證用 ACM）</t>
+  </si>
+  <si>
+    <t>API Gateway + Lambda（POST /shorten、GET /{code}）</t>
+  </si>
+  <si>
+    <t>DynamoDB（存 code → longUrl；壓力大也穩）</t>
+  </si>
+  <si>
+    <t>(選) Lambda@Edge/CloudFront Function（在邊緣直接查快取或做簡單邏輯）</t>
+  </si>
+  <si>
+    <t>(選) ElastiCache/Redis（熱碼快取）</t>
+  </si>
+  <si>
+    <t>→ 查 DynamoDB 拿長網址 → 回 302 + Location → 瀏覽器自動前往長網址</t>
+  </si>
+  <si>
+    <t>因為你只需要 1 個你自己的短網域（例如 sho.rt）。所有短網址都長在這個網域後面：</t>
+  </si>
+  <si>
+    <t>https://sho.rt/abc123、https://sho.rt/k9Z0eQ ……</t>
+  </si>
+  <si>
+    <t>會 先到你的短網域的伺服器/雲元件（EC2 / CloudFront / ALB / API GW），</t>
+  </si>
+  <si>
+    <t>你查到長網址後用 HTTP 301/302 回給瀏覽器，瀏覽器才會去原站。</t>
+  </si>
+  <si>
+    <t>技術上可以用 EC2 的公網 DNS 或 IP（例如 http://1.2.3.4/aBcDe），但：</t>
+  </si>
+  <si>
+    <t>短碼產生：</t>
+  </si>
+  <si>
+    <t>SEO / 狀態碼：</t>
+  </si>
+  <si>
+    <t>產品初期、目標是可更新與 A/B：302（暫時）</t>
+  </si>
+  <si>
+    <t>確認長期不變、要傳遞權重：301（永久）</t>
+  </si>
+  <si>
+    <t>快取：</t>
+  </si>
+  <si>
+    <t>code → URL 放 Redis（或 Lambda 快取在記憶體 + 短 TTL），大幅減少 DB 負載。</t>
+  </si>
+  <si>
+    <t>統計與追蹤（加分）：</t>
+  </si>
+  <si>
+    <t>安全 &amp; 風控：</t>
+  </si>
+  <si>
+    <t>到期機制：</t>
+  </si>
+  <si>
+    <t>expire_at 到期即 404 或導向中間頁提示已失效。</t>
+  </si>
+  <si>
+    <t>想要我幫你把 方案A（單台EC2） 或 **方案B（無伺服器）**的 AWS 架構圖 + Terraform/CloudFormation 雛形一次給你嗎？我可以直接依你現在的技術棧（Java Spring / Node.js）產一個你可用的骨架專案。</t>
+  </si>
+  <si>
+    <t>短縮ユーアールエル(自分のサイトのURLは短縮するのがいいと思います)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Geekly</t>
+    <t>タスク管理リスト(ユーザー、権限、並べ替え、検索)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teamlab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paypay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yahooline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楽天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ニトリ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java/Spring Boot + REST + PostgreSQL + Docker + GitHub Actions +（可選 AWS）</t>
-  </si>
-  <si>
-    <t>例子：URL 短網址服務 / 待辦清單（含用戶、權限、排序/搜尋）/ 影像上傳與縮圖管線（S3、SQS 或 Kafka 事件流，若你想展示分散式）。</t>
-  </si>
-  <si>
-    <t>里程碑</t>
-  </si>
-  <si>
-    <t>必備產出清單</t>
-  </si>
-  <si>
-    <t>公開 Repo（清晰 README + 架構圖 + ADR/設計取捨）</t>
-  </si>
-  <si>
-    <t>Demo 影片（2–3 分鐘）</t>
-  </si>
-  <si>
-    <t>自動化測試 &amp; CI</t>
-  </si>
-  <si>
-    <t>一張「前後對比/指標圖」或壓測報告（可簡單）</t>
-  </si>
-  <si>
-    <t>發佈貼文（LinkedIn/Blog），方便面試官點進來看</t>
-  </si>
-  <si>
-    <t>W1：定題 + 需求 10 行；畫簡單架構圖；定義 3 個展示用 API 與成功指標（如 P95 latency、QPS 目標）。</t>
-  </si>
-  <si>
-    <t>W2：把「最小功能」做完：資料模型、CRUD、單元測試 ≥70% 覆蓋、Docker 一鍵啟動。</t>
-  </si>
-  <si>
-    <t>W3：加入觀測性（/health、結構化日誌、簡單指標），補 README（啟動、測試、架構圖、設計取捨）。</t>
-  </si>
-  <si>
-    <t>W4：上 GitHub 公開、接 GitHub Actions CI；錄 2–3 分鐘 Demo 影片；寫 1 篇技術筆記。</t>
-  </si>
-  <si>
-    <t>W5：邀 2 位同行/學長姐 Code Review；依意見修一版；補負載測試腳本（k6/JMeter）與結果。</t>
-  </si>
-  <si>
-    <t>W6：整理作品說明頁（中/英/日擇二）：問題背景→架構→技術要點→指標→未來改進；把連結放進履歷與 LinkedIn。</t>
-  </si>
-  <si>
-    <t>路線選擇</t>
-  </si>
-  <si>
-    <t>A) 本機/單機示範（最快）</t>
-  </si>
-  <si>
-    <t>k3d 或 kind 起一個本機叢集</t>
-  </si>
-  <si>
-    <t>NGINX Ingress + Metrics Server</t>
-  </si>
-  <si>
-    <t>Postgres 用 StatefulSet（或乾脆用 Docker 外部 DB 也可以）</t>
-  </si>
-  <si>
-    <t>透過 Skaffold 或 kubectl kustomize 做本機快速迭代</t>
-  </si>
-  <si>
-    <t>👉 適合錄 Demo 影片與寫技術文：你能完整展示從 Docker → K8s 的部署流程與自動擴縮。</t>
-  </si>
-  <si>
-    <t>B) 雲端展示（求職更亮眼）</t>
-  </si>
-  <si>
-    <t>EKS / GKE / AKS 擇一（或用一台便宜 VPS + k3s）</t>
-  </si>
-  <si>
-    <t>影像推到 GHCR / Docker Hub</t>
-  </si>
-  <si>
-    <t>GitHub Actions：build → push → deploy 到 K8s</t>
-  </si>
-  <si>
-    <t>👉 可以給出「可瀏覽 URL」與 一鍵重佈署，面試超好講。</t>
-  </si>
-  <si>
-    <t>最小可展示的 K8s 清單（你需要的就這些）</t>
-  </si>
-  <si>
-    <t>1. Deployment（你的 Spring Boot 服務）</t>
-  </si>
-  <si>
-    <t>2. Service (ClusterIP)（供 Ingress 轉發）</t>
-  </si>
-  <si>
-    <t>3. Ingress（對外入口；本機用 NGINX Ingress）</t>
-  </si>
-  <si>
-    <t>4. ConfigMap（應用設定）</t>
-  </si>
-  <si>
-    <t>5. Secret（DB 密碼、JWT 秘鑰…）</t>
-  </si>
-  <si>
-    <t>6. HorizontalPodAutoscaler (HPA)（展示伸縮）</t>
-  </si>
-  <si>
-    <t>7. Postgres</t>
-  </si>
-  <si>
-    <t>Demo 可用 StatefulSet + PVC；</t>
-  </si>
-  <si>
-    <t>上雲建議用託管 DB（RDS / Cloud SQL），K8s 只放應用。</t>
-  </si>
-  <si>
-    <t>8. Resource requests/limits（讓 HPA/排程更合理）</t>
-  </si>
-  <si>
-    <t>GitHub Actions（CI/CD 思路）</t>
-  </si>
-  <si>
-    <t>1. CI：建置 + 測試 + 建 Docker image → 推到 GHCR/Docker Hub</t>
-  </si>
-  <si>
-    <t>2. CD：對 main 或 tag 觸發，用 kubectl 或 helm upgrade 部署</t>
-  </si>
-  <si>
-    <t>雲端叢集用 OIDC 或 Kubeconfig Secret</t>
-  </si>
-  <si>
-    <t>本機演示可改為手動 make deploy</t>
-  </si>
-  <si>
-    <t>風險與簡化策略</t>
-  </si>
-  <si>
-    <t>K8s 最容易失控在「功能太多」。先達成：可外網訪問 + HPA + 滾動升級，其餘（Service Mesh、Prometheus/Grafana、Helm chart 化）放第二階段。</t>
-  </si>
-  <si>
-    <t>資料庫不建議在 K8s 自管（為了穩定與成本），上雲就用託管 DB。</t>
-  </si>
-  <si>
-    <t>給面試官的敘事角度（你可以這樣講）</t>
-  </si>
-  <si>
-    <t>「我用 Spring Boot 做了一個可量化的服務，容器化後用 K8s 部署。為了可維運與擴展，我設定了 requests/limits 與 HPA，並以 Actuator 提供健康探針與指標。CI/CD 方面使用 GitHub Actions 從建置到部署，演示滾動升級與回滾，資料層上雲使用託管 DB 以降低營運風險。」</t>
-  </si>
-  <si>
-    <t>🚀 AWS 部署計畫（示範系統版）</t>
-  </si>
-  <si>
-    <t>1. 基礎環境選擇</t>
-  </si>
-  <si>
-    <t>EC2 類型：</t>
-  </si>
-  <si>
-    <t>t3.small（2 vCPU / 2GB RAM）：約 USD 15–20/月 → 足夠跑 Spring Boot + PostgreSQL + Nginx。</t>
-  </si>
-  <si>
-    <t>若需要再多一點餘裕：t3.medium（2 vCPU / 4GB RAM），約 USD 30/月。</t>
-  </si>
-  <si>
-    <t>OS：Amazon Linux 2 / Ubuntu 22.04 LTS。</t>
-  </si>
-  <si>
-    <t>儲存：20 GB gp3 EBS（每月約 2 美元）。</t>
-  </si>
-  <si>
-    <t>網路：一個彈性 IP（Elastic IP，免費）。</t>
-  </si>
-  <si>
-    <t>👉 先用 EC2 + Docker/Kubernetes，暫時不用 EKS，因為 EKS 固定就要多收 70+ USD/月，不適合示範系統。</t>
-  </si>
-  <si>
-    <t>2. 架構規劃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[GitHub Actions] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     v</t>
-  </si>
-  <si>
-    <t>[Docker Build + Push to GHCR]</t>
-  </si>
-  <si>
-    <t>[AWS EC2 (t3.small)] -- [k3s/kind]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [Spring Boot Service + PostgreSQL]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [NGINX Ingress Controller]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  https://demo.yourdomain.com</t>
-  </si>
-  <si>
-    <t>3. 部署步驟</t>
-  </si>
-  <si>
-    <t>A) 準備 EC2</t>
-  </si>
-  <si>
-    <t>1. 建立 EC2 instance（Ubuntu 22.04）。</t>
-  </si>
-  <si>
-    <t>2. 開啟 Security Group port：22 (SSH), 80 (HTTP), 443 (HTTPS)。</t>
-  </si>
-  <si>
-    <t>3. 安裝基礎工具：docker, docker-compose, kubectl, k3s（或 kind）。</t>
-  </si>
-  <si>
-    <t>B) 容器化應用</t>
-  </si>
-  <si>
-    <t>1. 在本地先寫好 Dockerfile（Spring Boot + JDK17 + JAR）。</t>
-  </si>
-  <si>
-    <t>2. PostgreSQL 可以：</t>
-  </si>
-  <si>
-    <t>放在同一台 EC2 用 Docker 容器；</t>
-  </si>
-  <si>
-    <t>或直接用 AWS RDS Free Tier（更專業，但多一點錢）。</t>
-  </si>
-  <si>
-    <t>3. 測試 docker-compose up 可以跑通。</t>
-  </si>
-  <si>
-    <t>C) Kubernetes（選擇性）</t>
-  </si>
-  <si>
-    <t>如果你想展示 K8s：在 EC2 上裝 k3s（輕量 K8s）。</t>
-  </si>
-  <si>
-    <t>部署 Deployment / Service / Ingress YAML。</t>
-  </si>
-  <si>
-    <t>開一個 Nginx Ingress Controller。</t>
-  </si>
-  <si>
-    <t>D) 網域與 HTTPS</t>
-  </si>
-  <si>
-    <t>1. 註冊一個便宜網域（Route53 或 Freenom 免費網域）。</t>
-  </si>
-  <si>
-    <t>2. 在 Route53 建立 DNS A record → 指向你的 EC2 Public IP。</t>
-  </si>
-  <si>
-    <t>3. 用 Certbot + Nginx Ingress → 免費的 Let’s Encrypt HTTPS。</t>
-  </si>
-  <si>
-    <t>E) CI/CD</t>
-  </si>
-  <si>
-    <t>GitHub Actions workflow：</t>
-  </si>
-  <si>
-    <t>1. Push → 建置 Docker image → 推到 GHCR（GitHub Container Registry）。</t>
-  </si>
-  <si>
-    <t>2. SSH 到 EC2 → kubectl rollout restart or docker-compose pull &amp;&amp; up -d。</t>
-  </si>
-  <si>
-    <t>範例（最簡版）：</t>
-  </si>
-  <si>
-    <t>name: CI/CD</t>
-  </si>
-  <si>
-    <t>on:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  push:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    branches: [ main ]</t>
-  </si>
-  <si>
-    <t>jobs:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  build-and-deploy:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    runs-on: ubuntu-latest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    steps:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      - uses: actions/checkout@v4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      - name: Build &amp; Push Docker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        run: |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          docker build -t ghcr.io/${{ github.repository }}:latest .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          echo ${{ secrets.GITHUB_TOKEN }} | docker login ghcr.io -u ${{ github.actor }} --password-stdin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          docker push ghcr.io/${{ github.repository }}:latest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      - name: Deploy to EC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        uses: appleboy/ssh-action@v1.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        with:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          host: ${{ secrets.EC2_HOST }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          username: ubuntu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          key: ${{ secrets.EC2_SSH_KEY }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          script: |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            docker pull ghcr.io/${{ github.repository }}:latest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            docker-compose -f ~/app/docker-compose.yml up -d</t>
-  </si>
-  <si>
-    <t>4. 成本預估（每月）</t>
-  </si>
-  <si>
-    <t>項目</t>
-  </si>
-  <si>
-    <t>成本</t>
-  </si>
-  <si>
-    <t>EC2 (t3.small, 20GB EBS)</t>
-  </si>
-  <si>
-    <t>~USD 17</t>
-  </si>
-  <si>
-    <t>Elastic IP</t>
-  </si>
-  <si>
-    <t>流量（50GB/月內）</t>
-  </si>
-  <si>
-    <t>幾乎免費</t>
-  </si>
-  <si>
-    <t>Route53 網域</t>
-  </si>
-  <si>
-    <t>~USD 1/月</t>
-  </si>
-  <si>
-    <t>總計</t>
-  </si>
-  <si>
-    <t>~USD 18–20</t>
-  </si>
-  <si>
-    <t>（若加 RDS 最便宜版，會再多 ~15 美元/月。）</t>
-  </si>
-  <si>
-    <t>5. Demo 包裝方式（面試可用）</t>
-  </si>
-  <si>
-    <t>「我做了一個 Spring Boot + PostgreSQL 的服務，容器化後部署在 AWS EC2 上，使用 Docker/Kubernetes 管理。CI/CD 採 GitHub Actions，自動部署並能滾動升級。Ingress 綁定自有網域並加上 HTTPS，系統可透過公開網址存取。」</t>
-  </si>
-  <si>
-    <t>你可以提供：</t>
-  </si>
-  <si>
-    <t>GitHub Repo（公開程式碼 + README）</t>
-  </si>
-  <si>
-    <t>Demo 網址</t>
-  </si>
-  <si>
-    <t>短 Demo 影片（2 分鐘，展示 CI/CD + API 呼叫）</t>
-  </si>
-  <si>
-    <t>⚡ 結論：</t>
-  </si>
-  <si>
-    <t>👉 AWS EC2 + Docker/K8s + GitHub Actions + 自有網域 = 成本低、能展示專業度、面試好講。</t>
-  </si>
-  <si>
-    <t>👉 RDS / EKS 可放在第二階段，若時間不夠先不用。</t>
-  </si>
-  <si>
-    <t>🎯 建議你 Demo 的重點（工程師＋架構思維）</t>
-  </si>
-  <si>
-    <t>1. 容器化 &amp; 部署能力</t>
-  </si>
-  <si>
-    <t>後端、前端都 Docker 化。</t>
-  </si>
-  <si>
-    <t>CI/CD pipeline 自動建置 &amp; 部署。</t>
-  </si>
-  <si>
-    <t>2. Kubernetes &amp; 自動擴縮</t>
-  </si>
-  <si>
-    <t>Deployment + Service + Ingress 基本功。</t>
-  </si>
-  <si>
-    <t>HPA (Horizontal Pod Autoscaler) 示範 CPU / QPS 下的自動 scale out。</t>
-  </si>
-  <si>
-    <t>3. 分散式/解耦設計</t>
-  </si>
-  <si>
-    <t>一個主要服務（核心 API）+ 一個背景工作（worker）。</t>
-  </si>
-  <si>
-    <t>4. 壓力測試與流量分流</t>
-  </si>
-  <si>
-    <t>k6/JMeter 壓測報告。</t>
-  </si>
-  <si>
-    <t>示範 scale out 前後的差異。</t>
-  </si>
-  <si>
-    <t>5. 資料庫設計</t>
-  </si>
-  <si>
-    <t>主 DB：PostgreSQL。</t>
-  </si>
-  <si>
-    <t>額外展示：NoSQL（Redis 或 MongoDB）做 cache / session / event log。</t>
-  </si>
-  <si>
-    <t>重點是「選型理由」，說明你如何考量關聯式 vs. 非關聯式。</t>
-  </si>
-  <si>
-    <t>6. 觀測性 (Observability)</t>
-  </si>
-  <si>
-    <t>Log aggregation（簡單 stdout + ELK/EFK 可選）</t>
-  </si>
-  <si>
-    <t>7. 文件與架構圖</t>
-  </si>
-  <si>
-    <t>README 清楚說明：架構圖、技術選型、部署流程、CI/CD。</t>
-  </si>
-  <si>
-    <t>這是「面試官最愛看」的部分，因為比功能更能展示思考。</t>
-  </si>
-  <si>
-    <t>用 message queue（Kafka / RabbitMQ / SQS）連接，展示非同步處理。</t>
-  </si>
-  <si>
-    <t>健康檢查 /health</t>
-  </si>
-  <si>
-    <t>Metrics /actuator/prometheus</t>
-  </si>
-  <si>
-    <t>✅ 你 demo 的敘事方式（面試時可以這樣講）</t>
-  </si>
-  <si>
-    <t>「這個系統的功能很簡單，但我設計的重點在於如何讓它能夠在雲端可擴展、可維運。</t>
-  </si>
-  <si>
-    <t>我使用 Docker 把前後端容器化，再用 Kubernetes 部署，設定了自動擴縮與 Ingress。</t>
-  </si>
-  <si>
-    <t>資料存放在 PostgreSQL，並額外加了 Redis 作為快取。</t>
-  </si>
-  <si>
-    <t>背景任務透過 Kafka 處理，確保服務能在高流量下不會被同步請求壓垮。</t>
-  </si>
-  <si>
-    <t>我也做了壓測，展示系統在 scale out 前後的差異，並用 CI/CD pipeline 自動化部署到 AWS。」</t>
-  </si>
-  <si>
-    <t>👉 這種故事比「我做了一個 ToDo app」要有殺傷力太多了。</t>
-  </si>
-  <si>
-    <t>📌 結論</t>
-  </si>
-  <si>
-    <t>你不用花時間在「花俏功能」，CRUD 有就好。</t>
-  </si>
-  <si>
-    <t>把精力放在 Docker → K8s → 分散式 → 壓測 → 架構文件。</t>
-  </si>
-  <si>
-    <t>這樣的 demo 才能真的讓面試官看到你超越一般全端工程師、往系統架構師方向的實力。</t>
-  </si>
-  <si>
-    <t>太好了 🔥 我幫你設計一個 「架構導向 Demo 藍圖」，目標是：功能簡單，但能充分展示 架構設計能力、雲端部署經驗、可擴展性思維。</t>
-  </si>
-  <si>
-    <t>🏗️ 架構導向 Demo 藍圖</t>
-  </si>
-  <si>
-    <t>1. 功能主題（MVP）</t>
-  </si>
-  <si>
-    <t>👉 功能不用複雜，只要「大家懂」＋「能承載架構」</t>
-  </si>
-  <si>
-    <t>短網址服務（縮網址 → 轉址 → 點擊數統計）</t>
-  </si>
-  <si>
-    <t>或 待辦清單（含用戶 / 權限 / 查詢）</t>
-  </si>
-  <si>
-    <t>或 影像上傳 → 壓縮/縮圖 → 下載</t>
-  </si>
-  <si>
-    <t>📌 重點：功能是「載體」，讓你能展示 分散式架構 + DevOps 能力。</t>
-  </si>
-  <si>
-    <t>2. 架構藍圖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   [Frontend: React] ----&gt; [API Gateway / Ingress]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                ----------------+-------------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                |                                   |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      [Spring Boot API]                   [Worker Service]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      (CRUD / REST / GraphQL)             (異步處理: 縮圖/統計)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        [PostgreSQL] ----------------------- [Redis/MongoDB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         (持久化資料庫)</t>
-  </si>
-  <si>
-    <t>元件亮點</t>
-  </si>
-  <si>
-    <t>Spring Boot API：核心服務，提供 RESTful API。</t>
-  </si>
-  <si>
-    <t>Worker Service：非同步處理，透過 Kafka/SQS 接收事件。</t>
-  </si>
-  <si>
-    <t>PostgreSQL：主資料庫。</t>
-  </si>
-  <si>
-    <t>Redis/MongoDB：快取或儲存事件日誌。</t>
-  </si>
-  <si>
-    <t>Ingress (NGINX)：K8s 對外入口。</t>
-  </si>
-  <si>
-    <t>CI/CD (GitHub Actions)：自動化 build &amp; deploy。</t>
-  </si>
-  <si>
-    <t>Kubernetes (k3s/EKS)：管理容器 + HPA 自動擴縮。</t>
-  </si>
-  <si>
-    <t>監控：Spring Boot Actuator + Prometheus（可選 Grafana）。</t>
-  </si>
-  <si>
-    <t>3. 技術清單（必備＋加分）</t>
-  </si>
-  <si>
-    <t>必備</t>
-  </si>
-  <si>
-    <t>後端：Java 17 + Spring Boot + Spring Data JPA</t>
-  </si>
-  <si>
-    <t>前端：React (Vite + Tailwind) 簡單 UI</t>
-  </si>
-  <si>
-    <t>資料庫：PostgreSQL</t>
-  </si>
-  <si>
-    <t>容器：Docker + docker-compose</t>
-  </si>
-  <si>
-    <t>CI/CD：GitHub Actions</t>
-  </si>
-  <si>
-    <t>部署：AWS EC2 + k3s（Kubernetes 輕量版）</t>
-  </si>
-  <si>
-    <t>Ingress：NGINX + Let’s Encrypt（免費 HTTPS）</t>
-  </si>
-  <si>
-    <t>加分</t>
-  </si>
-  <si>
-    <t>非同步處理：Kafka 或 SQS + Worker Service</t>
-  </si>
-  <si>
-    <t>NoSQL：Redis (快取 / session)</t>
-  </si>
-  <si>
-    <t>壓測：k6 / JMeter</t>
-  </si>
-  <si>
-    <t>觀測性：Prometheus + Grafana</t>
-  </si>
-  <si>
-    <t>文件：README（架構圖 + 技術選型 + 部署流程）</t>
-  </si>
-  <si>
-    <t>4. Demo 要展示的重點</t>
-  </si>
-  <si>
-    <t>1. 功能跑得起來：能 CRUD 或產生短網址。</t>
-  </si>
-  <si>
-    <t>2. CI/CD：push → 自動 build → deploy → 更新服務。</t>
-  </si>
-  <si>
-    <t>3. K8s HPA：壓測 → Pod 自動擴縮。</t>
-  </si>
-  <si>
-    <t>4. 非同步處理：請求送入 Queue → Worker 消化 → 結果寫回 DB。</t>
-  </si>
-  <si>
-    <t>5. DB 選型解釋：為什麼核心數據用 PostgreSQL、為什麼 cache/log 用 Redis/MongoDB。</t>
-  </si>
-  <si>
-    <t>6. 觀測性：Prometheus 抓 metrics，Grafana 出圖表。</t>
-  </si>
-  <si>
-    <t>7. 架構文件：清楚的架構圖、技術選型、優缺點。</t>
-  </si>
-  <si>
-    <t>5. 六週里程碑（架構導向版）</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>定題（短網址 / ToDo / 影像管線）</t>
-  </si>
-  <si>
-    <t>Spring Boot + PostgreSQL（CRUD MVP）</t>
-  </si>
-  <si>
-    <t>React + 基本 UI</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Docker 化（API + Frontend + DB）</t>
-  </si>
-  <si>
-    <t>docker-compose 本地跑通</t>
-  </si>
-  <si>
-    <t>GitHub Actions：CI (build + test)</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>部署 AWS EC2（Docker Compose → k3s）</t>
-  </si>
-  <si>
-    <t>Ingress + 免費網域 + HTTPS</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>加入 Redis 或 MongoDB</t>
-  </si>
-  <si>
-    <t>非同步處理（Kafka / SQS + Worker Service）</t>
-  </si>
-  <si>
-    <t>CI/CD 自動部署</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>壓測（k6 / JMeter）</t>
-  </si>
-  <si>
-    <t>加 HPA（自動擴縮）</t>
-  </si>
-  <si>
-    <t>加監控（Actuator + Prometheus）</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>文件化（README + 架構圖 + 部署步驟）</t>
-  </si>
-  <si>
-    <t>Demo 錄影（CI/CD 流程 + scale out showcase）</t>
-  </si>
-  <si>
-    <t>發布在 GitHub / LinkedIn</t>
-  </si>
-  <si>
-    <t>6. 面試包裝方式</t>
-  </si>
-  <si>
-    <t>你可以用這個故事線：</t>
-  </si>
-  <si>
-    <t>1. 我選了一個簡單的功能作為案例，但重點在系統設計。</t>
-  </si>
-  <si>
-    <t>2. 我容器化並部署到 AWS，使用 Kubernetes 管理。</t>
-  </si>
-  <si>
-    <t>3. 我設計了異步處理與 cache，展示分散式思維。</t>
-  </si>
-  <si>
-    <t>4. 我做了壓測與自動擴縮，證明系統可伸縮。</t>
-  </si>
-  <si>
-    <t>5. 我文件化整個架構，讓其他人能一鍵重現。</t>
-  </si>
-  <si>
-    <t>✅ 這樣的 Demo，不管是履歷寫「Side Project」、還是面試拿出來講，都能展現你不只是寫 code，而是有 架構與 DevOps 能力。</t>
-  </si>
-  <si>
-    <t>🎯 就你的 Demo 來看</t>
-  </si>
-  <si>
-    <t>如果重點是「業界普遍熟悉、能快速上手」 → MySQL ✅</t>
-  </si>
-  <si>
-    <t>面試官幾乎不用解釋，所有人都懂。</t>
-  </si>
-  <si>
-    <t>適合 CRUD + 基本交易，展示「K8s + CI/CD」就夠。</t>
-  </si>
-  <si>
-    <t>如果重點是「展示架構思維 &amp; 技術選型能力」 → PostgreSQL ✅</t>
-  </si>
-  <si>
-    <t>你可以說：</t>
-  </si>
-  <si>
-    <t>「我選 PostgreSQL，是因為它在 JSONB 與全文檢索上能同時 cover SQL 與類 NoSQL 場景，適合混合型應用。」</t>
-  </si>
-  <si>
-    <t>這會比「我用 MySQL 因為大家都用」更亮眼。</t>
-  </si>
-  <si>
-    <t>✅ 我的建議</t>
-  </si>
-  <si>
-    <t>因為你這個 Demo 是為了 架構展示 + 求職加分，我會推薦你用 PostgreSQL：</t>
-  </si>
-  <si>
-    <t>1. 在日本與國際大廠（金融、AI、資料密集公司），PostgreSQL 的接受度很高。</t>
-  </si>
-  <si>
-    <t>2. 你可以順便展示一些 進階功能（例如：JSONB 存事件 log、全文檢索 API）。</t>
-  </si>
-  <si>
-    <t>3. 在面試時比較有得講，不只是「我用了最常見的 MySQL」。</t>
-  </si>
-  <si>
-    <t>🔮 最佳策略</t>
-  </si>
-  <si>
-    <t>主要 DB：PostgreSQL（核心 CRUD + JSONB / 檢索）</t>
-  </si>
-  <si>
-    <t>輔助快取/非關聯式：Redis（展示多樣化存取模型）</t>
-  </si>
-  <si>
-    <t>這樣你可以在面試時說：</t>
-  </si>
-  <si>
-    <t>「主要業務資料我放 PostgreSQL，因為它能同時處理結構化與 JSONB 半結構化資料。</t>
-  </si>
-  <si>
-    <t>為了加速，我另外用 Redis 做快取，這樣可以展示不同資料庫選型的思維。」</t>
-  </si>
-  <si>
-    <t>要不要我幫你整理一個 「PostgreSQL + Redis」在 Demo 系統的分工設計表？</t>
-  </si>
-  <si>
-    <t>這樣你就能直接把它放到架構圖和 README 裡，講解時更有層次。</t>
-  </si>
-  <si>
-    <t>你說：</t>
-  </si>
-  <si>
-    <t>好 幫我整理一下</t>
-  </si>
-  <si>
-    <t>ChatGPT 說：</t>
-  </si>
-  <si>
-    <t>太好了 👍 我幫你整理一個 「PostgreSQL + Redis 在 Demo 系統的分工設計表」，這樣你在 README 或面試時能清楚說明 為什麼這樣選型。</t>
-  </si>
-  <si>
-    <t>🗄️ PostgreSQL + Redis 分工設計表</t>
-  </si>
-  <si>
-    <t>層面</t>
-  </si>
-  <si>
-    <t>PostgreSQL（關聯式主資料庫）</t>
-  </si>
-  <si>
-    <t>Redis（非關聯式快取 / Key-Value store）</t>
-  </si>
-  <si>
-    <t>定位</t>
-  </si>
-  <si>
-    <t>系統的「真實來源」(System of Record)</t>
-  </si>
-  <si>
-    <t>輔助角色，加速讀取、減少 DB 壓力</t>
-  </si>
-  <si>
-    <t>存放資料</t>
-  </si>
-  <si>
-    <t>- 使用者帳號、密碼（hash）</t>
-  </si>
-  <si>
-    <t>- 主要業務資料（例如短網址 mapping、待辦事項）</t>
-  </si>
-  <si>
-    <t>- 系統事件紀錄（transaction log）</t>
-  </si>
-  <si>
-    <t>- 熱門查詢結果快取（短網址查詢結果 / 待辦清單列表）</t>
-  </si>
-  <si>
-    <t>- Session / Token 快取（登入狀態）</t>
-  </si>
-  <si>
-    <t>- 限流（Rate Limiting counter）</t>
-  </si>
-  <si>
-    <t>資料型態</t>
-  </si>
-  <si>
-    <t>- 結構化表格 (Users, Tasks, UrlMapping)</t>
-  </si>
-  <si>
-    <t>- 半結構化 JSONB 欄位（事件 log、metadata）</t>
-  </si>
-  <si>
-    <t>- Key-Value</t>
-  </si>
-  <si>
-    <t>- TTL 到期機制（快取自動過期）</t>
-  </si>
-  <si>
-    <t>- 計數器（Page views, API hits）</t>
-  </si>
-  <si>
-    <t>優勢展示</t>
-  </si>
-  <si>
-    <t>- 關聯查詢 (JOIN)</t>
-  </si>
-  <si>
-    <t>- 交易一致性 (ACID)</t>
-  </si>
-  <si>
-    <t>- JSONB：同時處理 SQL + NoSQL</t>
-  </si>
-  <si>
-    <t>- 超快讀寫 (in-memory)</t>
-  </si>
-  <si>
-    <t>- 自動過期適合快取</t>
-  </si>
-  <si>
-    <t>- 適合限流與排行榜場景</t>
-  </si>
-  <si>
-    <t>架構角色</t>
-  </si>
-  <si>
-    <t>核心數據庫（必須保證一致性與持久化）</t>
-  </si>
-  <si>
-    <t>快取 / 暫存層（失效可回 DB 重建）</t>
-  </si>
-  <si>
-    <t>示範價值</t>
-  </si>
-  <si>
-    <t>展示你能處理 正規化資料設計 + 半結構化資料 (JSONB)</t>
-  </si>
-  <si>
-    <t>展示你理解 高併發場景下的快取策略、限流、Session 管理</t>
-  </si>
-  <si>
-    <t>🔧 Demo 系統應用案例</t>
-  </si>
-  <si>
-    <t>短網址服務 (URL Shortener)</t>
-  </si>
-  <si>
-    <t>PostgreSQL：</t>
-  </si>
-  <si>
-    <t>Table: url_mapping(id, original_url, short_code, created_at)</t>
-  </si>
-  <si>
-    <t>JSONB: access_logs 存取紀錄（IP, UserAgent, Time）</t>
-  </si>
-  <si>
-    <t>Redis：</t>
-  </si>
-  <si>
-    <t>快取 short_code → original_url 映射，避免每次查 DB</t>
-  </si>
-  <si>
-    <t>計算點擊次數（incr short_code:views）</t>
-  </si>
-  <si>
-    <t>待辦清單 (ToDo App)</t>
-  </si>
-  <si>
-    <t>Table: tasks(id, user_id, title, status, created_at)</t>
-  </si>
-  <si>
-    <t>快取使用者的任務列表，避免 DB 熱點查詢</t>
-  </si>
-  <si>
-    <t>存 JWT / Session token，做登入驗證</t>
-  </si>
-  <si>
-    <t>影像上傳 / 縮圖服務</t>
-  </si>
-  <si>
-    <t>Table: images(id, user_id, original_path, status, created_at)</t>
-  </si>
-  <si>
-    <t>任務佇列（簡單替代 MQ，存待處理圖片的 ID）</t>
-  </si>
-  <si>
-    <t>短期快取縮圖下載連結（有 TTL，過期自動清掉）</t>
-  </si>
-  <si>
-    <t>📖 面試時的敘事話術</t>
-  </si>
-  <si>
-    <t>你可以這樣說：</t>
-  </si>
-  <si>
-    <t>「我在系統裡使用了兩種不同的資料存取模型。</t>
-  </si>
-  <si>
-    <t>核心的使用者與業務資料放在 PostgreSQL，因為它能提供交易一致性，也能利用 JSONB 存半結構化資料。</t>
-  </si>
-  <si>
-    <t>但像短網址的查詢、登入 Session、點擊次數，這些高頻操作就放在 Redis，因為它在記憶體裡速度非常快，還能利用 TTL 自動清除。</t>
-  </si>
-  <si>
-    <t>這樣的設計讓系統既可靠又能在高併發場景下保持效能。」</t>
-  </si>
-  <si>
-    <t>✅ 這樣的分工能突顯：</t>
-  </si>
-  <si>
-    <t>你了解 關聯式 vs 非關聯式的適用場景</t>
-  </si>
-  <si>
-    <t>你能做 架構選型（而不是盲目選一個 DB）</t>
-  </si>
-  <si>
-    <t>你能在面試時「有得講」，而不是只有 CRUD Demo</t>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>日本語</t>
+  </si>
+  <si>
+    <t>ふりがな</t>
+  </si>
+  <si>
+    <t>影像上傳</t>
+  </si>
+  <si>
+    <t>画像アップロード</t>
+  </si>
+  <si>
+    <t>がぞう アップロード</t>
+  </si>
+  <si>
+    <t>縮圖</t>
+  </si>
+  <si>
+    <t>サムネイル生成</t>
+  </si>
+  <si>
+    <t>サムネイル せいせい</t>
+  </si>
+  <si>
+    <t>管線（Pipeline）</t>
+  </si>
+  <si>
+    <t>パイプライン</t>
+  </si>
+  <si>
+    <t>事件流（Event Stream）</t>
+  </si>
+  <si>
+    <t>イベントストリーム</t>
+  </si>
+  <si>
+    <t>影像上傳與縮圖管線（S3、SQS 或 Kafka 事件流，若你想展示分散式） 這個我有點不太明確了解 可以幫我詳細的介紹一下你指的是什麼意思嗎</t>
+  </si>
+  <si>
+    <t>好的 👍 我來幫你把 「影像上傳與縮圖管線（S3、SQS 或 Kafka 事件流）」 的概念完整拆開說清楚。這個主題在系統設計或面試時很常被問到。</t>
+  </si>
+  <si>
+    <t>1️⃣ 為什麼要做「影像上傳與縮圖管線」？</t>
+  </si>
+  <si>
+    <t>假設有一個網站或 App，使用者可以上傳圖片（例如：頭像、商品照片、相簿）。</t>
+  </si>
+  <si>
+    <t>但這些圖片往往很大，如果直接拿來顯示會：</t>
+  </si>
+  <si>
+    <t>影響載入速度（顯示一張 5MB 的照片很慢）。</t>
+  </si>
+  <si>
+    <t>浪費頻寬。</t>
+  </si>
+  <si>
+    <t>影響前端排版（需要不同尺寸的小圖、縮圖）。</t>
+  </si>
+  <si>
+    <t>👉 所以常見的解法是：</t>
+  </si>
+  <si>
+    <t>1. 使用者上傳原始圖檔。</t>
+  </si>
+  <si>
+    <t>2. 系統自動產生不同尺寸的縮圖（縮略圖、預覽圖、大圖）。</t>
+  </si>
+  <si>
+    <t>3. 使用者或前端頁面只取需要的尺寸來顯示。</t>
+  </si>
+  <si>
+    <t>2️⃣ 「管線（Pipeline）」是什麼意思？</t>
+  </si>
+  <si>
+    <t>這裡的 Pipeline 指的是一個「資料處理流程」，像工廠的生產線：</t>
+  </si>
+  <si>
+    <t>原始圖片進來 → 經過一系列處理（壓縮、縮圖、加浮水印） → 存到目標位置 → 回傳可用的網址。</t>
+  </si>
+  <si>
+    <t>它可以是同步（馬上生成）或非同步（丟到背景去處理）。</t>
+  </si>
+  <si>
+    <t>3️⃣ 為什麼提到 S3、SQS、Kafka？</t>
+  </si>
+  <si>
+    <t>這些是 AWS / 分散式架構裡的關鍵元件，用來處理大量圖片：</t>
+  </si>
+  <si>
+    <t>S3 (Simple Storage Service)</t>
+  </si>
+  <si>
+    <t>用來存圖片。</t>
+  </si>
+  <si>
+    <t>使用者上傳圖片後，原圖放到 S3。</t>
+  </si>
+  <si>
+    <t>產生的縮圖也放到 S3。</t>
+  </si>
+  <si>
+    <t>SQS (Simple Queue Service)</t>
+  </si>
+  <si>
+    <t>消息佇列，確保圖片處理流程解耦。</t>
+  </si>
+  <si>
+    <t>上傳完圖片 → 發一個「任務訊息」到 SQS → 後端 Worker 收到訊息去處理（縮圖）。</t>
+  </si>
+  <si>
+    <t>好處：不會因為瞬間很多人上傳就把服務壓垮。</t>
+  </si>
+  <si>
+    <t>Kafka (Event Streaming Platform)</t>
+  </si>
+  <si>
+    <t>更高階的事件流平台。</t>
+  </si>
+  <si>
+    <t>適合高併發、需要即時處理的情境（例如：同時處理上萬張圖片，並記錄處理狀態）。</t>
+  </si>
+  <si>
+    <t>與 SQS 類似，但功能更強（事件持久化、消費群組、即時流處理）。</t>
+  </si>
+  <si>
+    <t>4️⃣ 一個典型的流程（事件驅動）</t>
+  </si>
+  <si>
+    <t>1. 使用者上傳圖片 → 存到 S3</t>
+  </si>
+  <si>
+    <t>2. S3 觸發事件（或系統寫一條任務到 SQS/Kafka）</t>
+  </si>
+  <si>
+    <t>3. 後端的 Image Worker 收到事件 → 讀取原始圖片 → 生成縮圖</t>
+  </si>
+  <si>
+    <t>4. 把縮圖存回 S3</t>
+  </si>
+  <si>
+    <t>5. 更新資料庫（紀錄縮圖路徑 / URL）</t>
+  </si>
+  <si>
+    <t>6. 前端就能拿到對應的縮圖網址顯示</t>
+  </si>
+  <si>
+    <t>5️⃣ 這個功能為什麼適合拿來 Demo？</t>
+  </si>
+  <si>
+    <t>因為它有幾個亮點：</t>
+  </si>
+  <si>
+    <t>雲端技術：S3、SQS、Kafka，都是面試愛問的東西。</t>
+  </si>
+  <si>
+    <t>事件驅動架構：展示你懂 decoupling（解耦）、非同步處理。</t>
+  </si>
+  <si>
+    <t>可擴展性：如果有一百人同時上傳，系統也能用 queue / streaming 來撐住。</t>
+  </si>
+  <si>
+    <t>容易展示：Demo 時你可以用一個簡單網站，讓人上傳圖片，然後幾秒後縮圖出來。</t>
+  </si>
+  <si>
+    <t>📌 簡單一句話總結：</t>
+  </si>
+  <si>
+    <t>「影像上傳與縮圖管線」就是：使用者上傳圖片 → 存到 S3 → 發事件到 SQS/Kafka → 後端 Worker 生成縮圖 → 存回 S3 → 回傳縮圖網址。</t>
+  </si>
+  <si>
+    <t>這樣能展示你對 分散式、非同步處理、雲端服務 的理解。</t>
+  </si>
+  <si>
+    <t>用你自己的電腦把「分散式與容器編排」玩到紮實；上雲端只放「輕量、看得到 AWS 足跡的 Demo」。這樣既展現核心能力，又不會每月被扣太多費用。下面給你一套可直接照做的「雙軌方案」。</t>
+  </si>
+  <si>
+    <t>你的展示策略（雙軌）</t>
+  </si>
+  <si>
+    <t>① 本機（或家裡的小主機）＝「能力實力場」</t>
+  </si>
+  <si>
+    <t>Java Spring Boot（API）</t>
+  </si>
+  <si>
+    <t>PostgreSQL（資料庫）</t>
+  </si>
+  <si>
+    <t>Redis（快取／佇列）</t>
+  </si>
+  <si>
+    <t>Nginx / Ingress（反向代理）</t>
+  </si>
+  <si>
+    <t>-（可選）Prometheus + Grafana（監控、Dashboard）</t>
+  </si>
+  <si>
+    <t>Helm / Kustomize 部署</t>
+  </si>
+  <si>
+    <t>滾動更新、HPA（自動水平擴展，示意用 CPU/記憶體假負載）</t>
+  </si>
+  <si>
+    <t>Readiness/Liveness Probes</t>
+  </si>
+  <si>
+    <t>ConfigMap/Secret、PV/PVC（資料持久化）</t>
+  </si>
+  <si>
+    <t>CI（GitHub Actions）→ 本機 Registry → 叢集部署</t>
+  </si>
+  <si>
+    <t>② AWS（雲端）＝「輕量可連線的名片場」</t>
+  </si>
+  <si>
+    <t>為何選這些？</t>
+  </si>
+  <si>
+    <t>不用 EC2 也能完成（省錢、省維運）。</t>
+  </si>
+  <si>
+    <t>有「事件觸發／託管服務／權限（IAM）」等 AWS 關鍵點。</t>
+  </si>
+  <si>
+    <t>Demo 直觀：上傳→幾秒後有縮圖；或短網址→立即 302 導向。</t>
+  </si>
+  <si>
+    <t>成本控制（很重要，避免「每月 &gt; NT$1,000」）</t>
+  </si>
+  <si>
+    <t>你可以怎麼說（面試敘事模板）</t>
+  </si>
+  <si>
+    <t>「分散式與容器編排我在本機的 k3s/kind 叢集完整實作：Spring Boot、PostgreSQL、Redis、Ingress、HPA、監控都跑起來，並用 k6 壓測觀察擴展行為。上雲部分，我挑了兩個雲原生題材做成線上 Demo：</t>
+  </si>
+  <si>
+    <t>1. 影像上傳→S3 觸發 Lambda 產生縮圖，前端透過 CloudFront 服務；</t>
+  </si>
+  <si>
+    <t>2. 短網址服務用 API Gateway + Lambda + DynamoDB。</t>
+  </si>
+  <si>
+    <t>這樣既展現我對分散式與容器的掌握，也符合雲端成本與維運最佳實務。」</t>
+  </si>
+  <si>
+    <t>立即可行的待辦</t>
+  </si>
+  <si>
+    <t>你偏好哪個技術棧？我就直接給你可以跑的骨架。</t>
+  </si>
+  <si>
+    <t>結論先講：可以！而且很聰明。</t>
+  </si>
+  <si>
+    <t>重點：Docker／Kubernetes／分散式設計全都跑在這裡。</t>
+  </si>
+  <si>
+    <t>Kubernetes：用 k3d / kind / k3s 起單機多節點叢集（最省資源）。</t>
+  </si>
+  <si>
+    <t>服務組合：</t>
+  </si>
+  <si>
+    <t>實戰內容：</t>
+  </si>
+  <si>
+    <t>測試工具：k6 或 wrk 壓測，展示延遲/吞吐量隨副本數變化。</t>
+  </si>
+  <si>
+    <t>文件化：Repo 裡放 README + 架構圖 + 指令清單，一鍵 make up 跑起來。</t>
+  </si>
+  <si>
+    <t>這一塊展現你對容器化、服務拆分、可觀測性與部署流程的掌握，面試時超加分。</t>
+  </si>
+  <si>
+    <t>重點：讓面試官能在線 demo，同時留下「我用過 AWS 的證據」，但控制成本。</t>
+  </si>
+  <si>
+    <t>選 1–2 個雲服務主題（別一次全包）：</t>
+  </si>
+  <si>
+    <t>例 A：影像上傳與縮圖（S3 + Lambda + API Gateway + CloudFront）</t>
+  </si>
+  <si>
+    <t>例 B：短網址（API Gateway + Lambda + DynamoDB + CloudFront）</t>
+  </si>
+  <si>
+    <t>資料層：能用 DynamoDB（免費額度友善） 就別先上 RDS。</t>
+  </si>
+  <si>
+    <t>前端：放到 S3 + CloudFront，全球可存取、成本很低。</t>
+  </si>
+  <si>
+    <t>觀測：CloudWatch 指標 + 簡單告警。</t>
+  </si>
+  <si>
+    <t>基礎 IaC：用 CDK 或 Terraform 管一套最小基建（也顯示你會 IaC）。</t>
+  </si>
+  <si>
+    <t>這一塊證明你真的動手用過 AWS，而且懂得選擇雲原生與成本意識的做法。</t>
+  </si>
+  <si>
+    <t>避免長開 EC2：先不開或只在要展示時開一台小機（t3.micro/small 或 t4g.micro/small；用完就 Stop）。</t>
+  </si>
+  <si>
+    <t>優先選託管／無伺服器：S3、API Gateway、Lambda、DynamoDB、SQS 都是按量計費，小量幾乎免費。</t>
+  </si>
+  <si>
+    <t>S3 Lifecycle：上傳測試檔設規則 7–30 天自動刪除。</t>
+  </si>
+  <si>
+    <t>CloudFront：小流量幾乎感受不到費用（但仍要監控）。</t>
+  </si>
+  <si>
+    <t>Budget 告警：設定 AWS Budgets，超過 NT$300/500/800 就寄信提醒。</t>
+  </si>
+  <si>
+    <t>標籤治理：資源加 Project=PortfolioDemo，月底用 Cost Explorer 檢視。</t>
+  </si>
+  <si>
+    <t>一鍵清理：提供 destroy.sh 或 Terraform destroy，避免遺留花費。</t>
+  </si>
+  <si>
+    <t>本機：用 k3d 建三節點叢集 → 部署 Spring/PG/Redis → 加 HPA + Grafana。</t>
+  </si>
+  <si>
+    <t>雲端：先做 影像縮圖（S3+Lambda） 或 短網址（APIGW+Lambda+DDB） 任一。</t>
+  </si>
+  <si>
+    <t>Repo：放 架構圖、指令、Makefile、壓測報告圖片。</t>
+  </si>
+  <si>
+    <t>成本：開 AWS Budgets 告警、S3 設 Lifecycle、完成後記得 destroy。</t>
+  </si>
+  <si>
+    <t>如果你決定 Java Spring 為主或Node.js 為主，我可以幫你：</t>
+  </si>
+  <si>
+    <t>出一份 Docker Compose（本機版） 或 k3d/kind 的 Kubernetes 清單；</t>
+  </si>
+  <si>
+    <t>以及一套 S3+Lambda（或短網址） 的最小 IaC 腳手架。</t>
+  </si>
+  <si>
+    <t>對！你抓到大方向了 👌 我幫你再稍微整理一下流程跟觀念，讓概念更完整：</t>
+  </si>
+  <si>
+    <t>🔑 基本概念</t>
+  </si>
+  <si>
+    <t>1. 映像檔（Image）來源</t>
+  </si>
+  <si>
+    <t>你直接拉就能用，例如：</t>
+  </si>
+  <si>
+    <t>docker pull postgres:16</t>
+  </si>
+  <si>
+    <t>docker pull redis:7</t>
+  </si>
+  <si>
+    <t>2. 自己的程式（Spring Boot）</t>
+  </si>
+  <si>
+    <t>你要先 build 一個屬於自己的 Image（用 Dockerfile 或 Jib）。</t>
+  </si>
+  <si>
+    <t>然後 push 到某個 Registry（Docker Hub / GHCR / ECR），方便 k8s 節點拉取。</t>
+  </si>
+  <si>
+    <t>3. Kubernetes (k8s) 負責 orchestrate（編排）</t>
+  </si>
+  <si>
+    <t>指定「這個 Pod 要跑哪個 image」。</t>
+  </si>
+  <si>
+    <t>k8s 就會從 Registry 拉 image 下來，幫你跑起來，並確保健康（掛掉就重啟）。</t>
+  </si>
+  <si>
+    <t>📦 一個簡化的例子</t>
+  </si>
+  <si>
+    <t>假設你要跑 Spring Boot + PostgreSQL + Redis：</t>
+  </si>
+  <si>
+    <t>1. 拉官方 DB / Cache Image</t>
+  </si>
+  <si>
+    <t>apiVersion: apps/v1</t>
+  </si>
+  <si>
+    <t>kind: Deployment</t>
+  </si>
+  <si>
+    <t>metadata:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: postgres</t>
+  </si>
+  <si>
+    <t>spec:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  replicas: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  selector:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    matchLabels:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      app: postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  template:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    metadata:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      labels:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        app: postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    spec:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      containers:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - name: postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        image: postgres:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        env:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - name: POSTGRES_PASSWORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          value: mysecret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ports:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - containerPort: 5432</t>
+  </si>
+  <si>
+    <t>2. 自己的 Spring Boot Image</t>
+  </si>
+  <si>
+    <t>先 build &amp; push：</t>
+  </si>
+  <si>
+    <t>docker build -t mydockerhubusername/myapp:1.0 .</t>
+  </si>
+  <si>
+    <t>docker push mydockerhubusername/myapp:1.0</t>
+  </si>
+  <si>
+    <t>然後在 k8s Deployment 用：</t>
+  </si>
+  <si>
+    <t>containers:</t>
+  </si>
+  <si>
+    <t>- name: myapp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  image: mydockerhubusername/myapp:1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ports:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - containerPort: 8080</t>
+  </si>
+  <si>
+    <t>3. Redis 也是一樣</t>
+  </si>
+  <si>
+    <t>- name: redis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  image: redis:7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - containerPort: 6379</t>
+  </si>
+  <si>
+    <t>🚀 流程圖（簡化版）</t>
+  </si>
+  <si>
+    <t>1. Docker Hub 拉官方 image（Postgres / Redis）。</t>
+  </si>
+  <si>
+    <t>2. 你自己 build Spring Boot image → 推到 Docker Hub。</t>
+  </si>
+  <si>
+    <t>3. k8s Deployment → 指定這些 image → k8s 幫你拉下來並 run。</t>
+  </si>
+  <si>
+    <t>4. Service / Ingress 把它們串起來，對外提供 API。</t>
+  </si>
+  <si>
+    <t>✅ 總結一句話</t>
+  </si>
+  <si>
+    <t>像 PostgreSQL、Redis 這些常見服務，官方或社群已經在 Docker Hub（或其他 Registry）提供現成的 Image。</t>
+  </si>
+  <si>
+    <t>你寫 YAML manifest（Deployment / Service / Ingress）。</t>
+  </si>
+  <si>
+    <t>Postgres、Redis：直接用 Docker Hub 官方 image。</t>
+  </si>
+  <si>
+    <t>Spring Boot：自己 build image、push 到 registry。</t>
+  </si>
+  <si>
+    <t>Kubernetes：讀 YAML → 拉對應的 image → 幫你 run 起來並管理。</t>
+  </si>
+  <si>
+    <t>「Q（Queue）」到底是什麼？</t>
+  </si>
+  <si>
+    <t>API 把「要做的事」丟進去（訊息/任務）。</t>
+  </si>
+  <si>
+    <t>Worker 從裡面取出來處理，處理完回報「我完成了」。</t>
+  </si>
+  <si>
+    <t>它跑在哪裡？</t>
+  </si>
+  <si>
+    <t>有三種典型方式：</t>
+  </si>
+  <si>
+    <t>優點：穩、可擴充、免維運；缺點：需上雲、依賴雲帳單</t>
+  </si>
+  <si>
+    <t>API/Worker 透過雲端的 HTTP/SDK 連上去用</t>
+  </si>
+  <si>
+    <t>優點：本機/內網就能跑、可離線開發；缺點：你要自己維運</t>
+  </si>
+  <si>
+    <t>形式：可以是「一個或多個進程」，你會用 systemd 或 Docker Compose 啟動</t>
+  </si>
+  <si>
+    <t>3. 嵌入式/記憶體版（開發用）</t>
+  </si>
+  <si>
+    <t>例：Spring 直接用本機記憶體佇列（BlockingQueue）做最小雛形</t>
+  </si>
+  <si>
+    <t>只適合 Demo/單機測試，不具備持久化與容錯</t>
+  </si>
+  <si>
+    <t>Queue vs Stream（差在哪？）</t>
+  </si>
+  <si>
+    <t>類型</t>
+  </si>
+  <si>
+    <t>代表</t>
+  </si>
+  <si>
+    <t>典型特性</t>
+  </si>
+  <si>
+    <t>適合場景</t>
+  </si>
+  <si>
+    <t>Queue（佇列）</t>
+  </si>
+  <si>
+    <t>SQS、RabbitMQ、NATS JetStream（可混）</t>
+  </si>
+  <si>
+    <t>工作任務、背景 Job、縮圖、寄信</t>
+  </si>
+  <si>
+    <t>Stream（事件流）</t>
+  </si>
+  <si>
+    <t>Kafka、Redis Streams</t>
+  </si>
+  <si>
+    <t>訊息保留一段時間；多個消費群組可各自讀；可重播</t>
+  </si>
+  <si>
+    <t>事件溯源、行為日誌、多下游訂閱、即時分析</t>
+  </si>
+  <si>
+    <t>它怎麼「確保不丟」與「重試」？</t>
+  </si>
+  <si>
+    <t>以 Queue（像 SQS/RabbitMQ）為例：</t>
+  </si>
+  <si>
+    <t>你在本機要怎麼跑一個 Queue/Stream？</t>
+  </si>
+  <si>
+    <t>最簡單用 Docker Compose：</t>
+  </si>
+  <si>
+    <t>選項 A：Redis Streams（輕巧、超快起）</t>
+  </si>
+  <si>
+    <t># docker-compose.yml</t>
+  </si>
+  <si>
+    <t>services:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  redis:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: redis:7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ports: ["6379:6379"]</t>
+  </si>
+  <si>
+    <t>好處：超級容易在本機玩起來。</t>
+  </si>
+  <si>
+    <t>選項 B：RabbitMQ（傳統 Queue，管理介面友善）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  rabbitmq:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: rabbitmq:3-management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ports: ["5672:5672", "15672:15672"]  # 15672 是 Web UI</t>
+  </si>
+  <si>
+    <t>Web 管理台可看訊息堆積與消費狀況。</t>
+  </si>
+  <si>
+    <t>選項 C：Kafka（事件流）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  zookeeper:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: confluentinc/cp-zookeeper:7.5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    environment:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ZOOKEEPER_CLIENT_PORT: 2181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ports: ["2181:2181"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  kafka:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: confluentinc/cp-kafka:7.5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ports: ["9092:9092"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      KAFKA_ZOOKEEPER_CONNECT: zookeeper:2181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      KAFKA_ADVERTISED_LISTENERS: PLAINTEXT://localhost:9092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      KAFKA_OFFSETS_TOPIC_REPLICATION_FACTOR: 1</t>
+  </si>
+  <si>
+    <t>提供保留/回放、多訂閱者能力（成本與複雜度較高）</t>
+  </si>
+  <si>
+    <t>心智模型（比喻）</t>
+  </si>
+  <si>
+    <t>回到你的問題（重點）</t>
+  </si>
+  <si>
+    <t>超好的問題！先把名詞對齊一下：你說的 「B 模式」＝ 佇列／事件流。剛剛你打到的「Q 跟 String」應該是指 Queue（佇列）跟 Stream（事件流）。</t>
+  </si>
+  <si>
+    <t>一句話：一個專門幫你「暫存、排隊、分發」訊息的服務。</t>
+  </si>
+  <si>
+    <t>期間 Queue 幫你確保：不丟失、能重試、可控速、可擴充。</t>
+  </si>
+  <si>
+    <t>1. 雲端託管服務（不需要你自己裝軟體）</t>
+  </si>
+  <si>
+    <t>例：AWS SQS（Queue）、Amazon MSK / Confluent Cloud（Kafka, Stream）</t>
+  </si>
+  <si>
+    <t>2. 自架在你的機器/VM 上（Ubuntu 上的一個服務/Process，通常用 Docker 跑）</t>
+  </si>
+  <si>
+    <t>例：RabbitMQ（Queue）、Redis Streams（Stream）、Kafka（Stream）、NATS（Queue/Stream）</t>
+  </si>
+  <si>
+    <t>任務「一次且僅一次 語意」為目標（實務多為至少一次 + 去重）；消費掉就不再給別人</t>
+  </si>
+  <si>
+    <t>你做「影像縮圖任務」：Queue 已經很好用（SQS/RabbitMQ/Redis Streams 也能當隊列用）。</t>
+  </si>
+  <si>
+    <t>你要「一個上傳事件 → 多個服務都要各自讀、且能回放歷史」：Stream（Kafka） 更適合。</t>
+  </si>
+  <si>
+    <t>API SendMessage（寫入任務）。</t>
+  </si>
+  <si>
+    <t>Worker ReceiveMessage 把任務取出來處理，此時任務暫時隱藏（Visibility Timeout）。</t>
+  </si>
+  <si>
+    <t>處理成功 → Ack/Delete（刪除任務）；</t>
+  </si>
+  <si>
+    <t>逾時或失敗沒 Ack → 任務自動回到佇列，可被別的 Worker 再次取走（重試）。</t>
+  </si>
+  <si>
+    <t>多次失敗 → 丟到 DLQ（死信佇列），供人工排查。</t>
+  </si>
+  <si>
+    <t>Spring Boot API：上傳後 XADD images:uploaded * key uploads/abc.jpg</t>
+  </si>
+  <si>
+    <t>Worker：XREADGROUP GROUP g1 c1 BLOCK 0 STREAMS images:uploaded &gt;</t>
+  </si>
+  <si>
+    <t>API：basic.publish 推訊息到 queue</t>
+  </si>
+  <si>
+    <t>Worker：basic.consume 取訊息，處理完 ack</t>
+  </si>
+  <si>
+    <t>API：produce 到 image.uploaded topic</t>
+  </si>
+  <si>
+    <t>Worker：同一個 consumer group 內的多個實例分工 consume</t>
+  </si>
+  <si>
+    <t>Queue 像「叫號機」：API 把號碼單塞進機器 → Worker 叫到號碼就處理 → 完成後把號碼單丟掉。</t>
+  </si>
+  <si>
+    <t>Stream 像「記錄帶」：所有事件都沿著膠卷排好，你可以從任何位置開始看、也能多個人各看一份。</t>
+  </si>
+  <si>
+    <t>Q 到底是什麼？ → 一個服務（軟體），負責存放/排隊/分發訊息。</t>
+  </si>
+  <si>
+    <t>它在哪？ → 可以在雲端（SQS/Confluent Cloud），也可以自架在 Ubuntu（RabbitMQ/Redis/Kafka），常用 Docker 跑。</t>
+  </si>
+  <si>
+    <t>誰負責「監看」？ → Worker 永遠在那裡「拉取/訂閱」訊息，不是 API 去喚醒它。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1220,14 +2707,45 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="細明體"/>
+      <name val="Malgun Gothic Semilight"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1240,8 +2758,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1249,15 +2773,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1538,10 +3113,573 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:U135"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB26" sqref="AB26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="5.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C5" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="11"/>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C6" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="11"/>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C7" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="11"/>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C8" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="11"/>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C9" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="11"/>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C10" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="11"/>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C11" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="11"/>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I31" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="I33" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I35" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I37" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I39" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I41" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I43" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I45" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I47" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I49" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I53" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I55" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I57" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I59" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I64" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I66" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I68" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I70" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I72" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I74" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I75" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I77" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I79" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I81" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I83" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I84" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I88" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="90" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I90" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I92" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I94" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I96" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I98" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I100" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I102" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I106" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I108" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I110" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I113" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I115" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I117" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="121" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I121" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I123" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="126" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I126" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="128" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I128" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I130" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="133" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I133" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="135" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I135" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394A5F51-F099-4E7E-A707-4BA9FC50FA9A}">
+  <dimension ref="B3:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F32F5E-AD00-40BF-9ECF-0003C1733E78}">
   <dimension ref="C3:N122"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="I124" sqref="I124"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1613,242 +3751,242 @@
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I22" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I24" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I26" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I28" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I30" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I32" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I34" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I36" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I38" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I40" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I42" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I44" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I46" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I51" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I53" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I55" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I57" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I59" s="1" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I61" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I62" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I64" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I66" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I68" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I70" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I71" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I75" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I77" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I79" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I81" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I83" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I85" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I87" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I89" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I93" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I95" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I97" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I100" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I102" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I104" s="1" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I108" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I110" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I113" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I115" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I117" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I120" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I122" s="1" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1857,12 +3995,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A66081-3D87-44B0-A389-79D5CF7786BD}">
   <dimension ref="C3:E565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="L416" sqref="L416"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1872,378 +4010,378 @@
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="1" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="1" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="1" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="1" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="1" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="1" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="1" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="1" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="1" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" s="1" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="1" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" s="1" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" s="1" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
@@ -2251,1068 +4389,1068 @@
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" s="1" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" s="1" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="1" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="1" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="1" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="1" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" s="1" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="1" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" s="1" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="1" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" s="1" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" s="1" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" s="1" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C164" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C166" s="1" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C170" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C172" s="1" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C174" s="1" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" s="1" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180" s="1" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182" s="1" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C186" s="1" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="1" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C190" s="1" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" s="1" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C196" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" s="1" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200" s="1" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C204" s="1" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C206" s="1" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C208" s="1" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C210" s="1" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C214" s="1" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C216" s="1" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C220" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C222" s="1" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C223" s="1" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C224" s="1" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C225" s="1" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C226" s="1" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C228" s="1" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C232" s="1" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C234" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C236" s="1" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C238" s="1" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C244" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C248" s="1" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C250" s="1" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C252" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C254" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C256" s="1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C258" s="1" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C260" s="1" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C264" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C266" s="1" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C267" s="1" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C268" s="1" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C269" s="1" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C270" s="1" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C271" s="1" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C272" s="1" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C273" s="1" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C274" s="1" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C275" s="1" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C277" s="1" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C279" s="1" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C281" s="1" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C283" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C285" s="1" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C287" s="1" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C289" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C291" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C293" s="1" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C297" s="1" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C299" s="1" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C301" s="1" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C303" s="1" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C305" s="1" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C307" s="1" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C309" s="1" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C311" s="1" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C313" s="1" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C315" s="1" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="317" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C317" s="1" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="319" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C319" s="1" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C321" s="1" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="323" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C323" s="1" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
     </row>
     <row r="325" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C325" s="1" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C329" s="1" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C331" s="1" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="333" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C333" s="1" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="335" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C335" s="1" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C337" s="1" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C339" s="1" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C341" s="1" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C343" s="1" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C347" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C349" s="1" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C351" s="1" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C353" s="1" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C355" s="1" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="357" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C357" s="1" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C359" s="1" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C361" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="363" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C363" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C365" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C367" s="1" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C369" s="1" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C371" s="1" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C373" s="1" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C375" s="1" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C377" s="1" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C379" s="1" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C381" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C383" s="1" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C385" s="1" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
     </row>
     <row r="387" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C387" s="1" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
     </row>
     <row r="389" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C389" s="1" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
     </row>
     <row r="391" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C391" s="1" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
     </row>
     <row r="393" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C393" s="1" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
     </row>
     <row r="397" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C397" s="1" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
     </row>
     <row r="399" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C399" s="1" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C401" s="1" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C403" s="1" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
     </row>
     <row r="405" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C405" s="1" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C407" s="1" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="409" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C409" s="1" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="413" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C413" s="1" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C417" s="1" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C419" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
     </row>
     <row r="423" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C423" s="1" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
     </row>
     <row r="425" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C425" s="1" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
     </row>
     <row r="427" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C427" s="1" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C431" s="1" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
     </row>
     <row r="433" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C433" s="1" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C435" s="1" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
     </row>
     <row r="439" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C439" s="1" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
     </row>
     <row r="441" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C441" s="1" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C443" s="1" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
     </row>
     <row r="445" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C445" s="1" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
     </row>
     <row r="447" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C447" s="1" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C451" s="1" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C453" s="1" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C455" s="1" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C457" s="1" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C459" s="1" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
     </row>
     <row r="460" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C460" s="1" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C464" s="1" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
     </row>
     <row r="465" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C465" s="1" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
     </row>
     <row r="467" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C467" s="1" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
     </row>
     <row r="469" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C469" s="1" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
     </row>
     <row r="471" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C471" s="1" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
     </row>
     <row r="473" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C473" s="1" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
     </row>
     <row r="477" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C477" s="1" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
     </row>
     <row r="479" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C479" s="1" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
     </row>
     <row r="480" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C480" s="1" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
     </row>
     <row r="481" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C481" s="1" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
     </row>
     <row r="482" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D482" s="1" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
     </row>
     <row r="483" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D483" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
     </row>
     <row r="484" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C484" s="1" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
     </row>
     <row r="485" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D485" s="1" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
     </row>
     <row r="486" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E486" s="1" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
     </row>
     <row r="487" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C487" s="1" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
     </row>
     <row r="488" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D488" s="1" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
     </row>
     <row r="489" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D489" s="1" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
     </row>
     <row r="490" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C490" s="1" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
     </row>
     <row r="491" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C491" s="1" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
     </row>
     <row r="494" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C494" s="1" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
     </row>
     <row r="496" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C496" s="1" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
     </row>
     <row r="498" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C498" s="1" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="502" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C502" s="1" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="504" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C504" s="1" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
     </row>
     <row r="506" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C506" s="1" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
     </row>
     <row r="510" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C510" s="1" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
     </row>
     <row r="512" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C512" s="1" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
     </row>
     <row r="514" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C514" s="1" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
     </row>
     <row r="516" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C516" s="1" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="520" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C520" s="1" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
     </row>
     <row r="522" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C522" s="1" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
     </row>
     <row r="526" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C526" s="1" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
     </row>
     <row r="528" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C528" s="1" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
     </row>
     <row r="530" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C530" s="1" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
     </row>
     <row r="532" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C532" s="1" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="536" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C536" s="1" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
     </row>
     <row r="538" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C538" s="1" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
     </row>
     <row r="542" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C542" s="1" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
     </row>
     <row r="544" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C544" s="1" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
     </row>
     <row r="548" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C548" s="1" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
     </row>
     <row r="550" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C550" s="1" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
     </row>
     <row r="552" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C552" s="1" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
     </row>
     <row r="553" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C553" s="1" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="554" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C554" s="1" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
     </row>
     <row r="555" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C555" s="1" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
     </row>
     <row r="559" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C559" s="1" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
     </row>
     <row r="561" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C561" s="1" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
     </row>
     <row r="563" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C563" s="1" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
     </row>
     <row r="565" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C565" s="1" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3321,152 +5459,1855 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DF67B3-24D1-41C1-9EFB-DDA31C274479}">
-  <dimension ref="C5:P32"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F28CB3-0951-4C3B-A113-606F00734211}">
+  <dimension ref="C3:C204"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="5.7109375" style="1"/>
+    <col min="1" max="16384" width="3.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:16" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="3:16" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="3:16" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="3:16" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="3:16" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="3:16" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="3:16" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="3:16" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="3:16" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="3:16" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="3:16" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="3:3" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="3:3" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="3:3" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="3:3" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="3:3" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="3:3" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C22" s="2"/>
-    </row>
-    <row r="25" spans="3:3" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C25" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C26" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C27" s="2" t="s">
-        <v>26</v>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C106" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C112" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C122" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C123" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C126" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C127" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C128" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C131" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C133" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C140" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C142" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C146" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C148" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C150" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C152" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C156" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C158" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C160" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C164" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C166" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C170" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C172" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C176" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C178" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C180" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C182" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C184" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C188" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C192" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C194" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C196" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C198" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C200" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C204" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1153F6C-D1D2-4429-B137-0E298F8C052D}">
+  <dimension ref="C3:C110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="3.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6ABB904-F3B9-4EF0-88CA-CABA0DED12FC}">
+  <dimension ref="C3:C131"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="3.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C31" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E5F973-0988-49EE-893B-3A1326900BD8}">
+  <dimension ref="C3:C112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14:Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="3.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE39AA2-CB90-4A02-B0F3-B2BEAFF1646A}">
+  <dimension ref="C3:F145"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="3.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
   </sheetData>

--- a/project_document/project_plan_document.xlsx
+++ b/project_document/project_plan_document.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cliff_studio_project_2025\project_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AE74AC-FF9D-455E-9D3A-DDBB795C2AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EB38AC-61A1-43BA-8548-B52C4EC346B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="330" windowWidth="21840" windowHeight="14775" tabRatio="706" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="706" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトの計画" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId2"/>
-    <sheet name="プロジェクトの計画_バックアップ" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
-    <sheet name="短縮ユーアールエル" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="9" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="10" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="11" r:id="rId9"/>
+    <sheet name="システム構成図" sheetId="12" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId3"/>
+    <sheet name="プロジェクトの計画_バックアップ" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
+    <sheet name="短縮ユーアールエル" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet9" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="773">
   <si>
     <t>使う技術</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2679,12 +2680,118 @@
   <si>
     <t>誰負責「監看」？ → Worker 永遠在那裡「拉取/訂閱」訊息，不是 API 去喚醒它。</t>
   </si>
+  <si>
+    <t>ubuntu 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typescript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubernetes (k3s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login server 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login server 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Java spring boot)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AP server </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🔹 2. 為什麼很多公司還是用 Spring Boot 做 Login Server？</t>
+  </si>
+  <si>
+    <t>1. 一致性：整個系統同一技術棧，方便團隊維護。</t>
+  </si>
+  <si>
+    <t>2. 生態強：Spring Security + OAuth2 Client/Server + JWT 整合簡單。</t>
+  </si>
+  <si>
+    <t>3. 登入邏輯通常不會超重：只要設計成 Stateless（發 JWT/Session ID 存 Redis），其實效能足夠。</t>
+  </si>
+  <si>
+    <t>4. 可水平擴展：登入服務可以單獨 scale out（多開幾個副本），並不一定要換框架。</t>
+  </si>
+  <si>
+    <t>Pod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap-svc</t>
+  </si>
+  <si>
+    <t>login-svc</t>
+  </si>
+  <si>
+    <t>redis-svc</t>
+  </si>
+  <si>
+    <t>postgres-svc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nginx </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingress </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ↓ https://example.com</t>
+  </si>
+  <si>
+    <t>Ingress Controller (Nginx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ├── /login → login-svc → login Pod1, Pod2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   └── /api   → ap-svc    → ap Pod</t>
+  </si>
+  <si>
+    <t>login/ap Pods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ├── redis-svc → redis Pod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   └── postgres-svc → postgres Pod</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2743,6 +2850,29 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2814,7 +2944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2833,6 +2963,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2848,6 +2981,861 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>319520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>145</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3CBA1D9-B25B-4EBC-BDF7-2793CCFD6D53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15192375" y="10320770"/>
+          <a:ext cx="19508932" cy="13944168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>144</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>309562</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F78A42A-6D72-4634-B7EF-BBEC7F8D685F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15740062" y="11358562"/>
+          <a:ext cx="18573749" cy="12334875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>103908</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="四角形: 角を丸くする 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B82A9E-A477-4253-A597-7016E43D58F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26185091" y="17439409"/>
+          <a:ext cx="3654136" cy="2078181"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="四角形: 角を丸くする 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C2C2F4B-F86C-4042-AC0A-6C43AB71AEB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25241250" y="17335500"/>
+          <a:ext cx="4500562" cy="2809876"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="四角形: 角を丸くする 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421D82AA-B927-4C4B-8DB7-FBCD90F4FFA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19526250" y="15001875"/>
+          <a:ext cx="4186670" cy="6715125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>121</xdr:col>
+      <xdr:colOff>103910</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="円柱 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D512CBA7-9586-4097-8986-A8983BC52671}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25700182" y="12503727"/>
+          <a:ext cx="3740728" cy="3325091"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>141</xdr:col>
+      <xdr:colOff>103910</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="円柱 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE32A20-E1B0-420C-B8CF-9C7ECC2E943A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30549273" y="12503727"/>
+          <a:ext cx="3740728" cy="3325091"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="四角形: 角を丸くする 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4DB98A0-5D5D-4EFD-96D2-5DCD0F5985C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25457727" y="12174682"/>
+          <a:ext cx="4277591" cy="3983182"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>125</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>142</xdr:col>
+      <xdr:colOff>155864</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="四角形: 角を丸くする 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567729EA-7633-479C-852A-05F11715F3BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30306818" y="12174682"/>
+          <a:ext cx="4277591" cy="3983182"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>261937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="四角形: 角を丸くする 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F062BA-2F2A-4471-8BD9-67D9BC9F44C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16668750" y="12668250"/>
+          <a:ext cx="2476500" cy="10310812"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669075B6-F5E7-41AF-97A1-8636C6F56C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="10334625"/>
+          <a:ext cx="2881312" cy="11025187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>103908</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="四角形: 角を丸くする 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05C9D0A-DCA7-458E-8434-BC9A68DDE7FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19764375" y="16002000"/>
+          <a:ext cx="3589193" cy="2104158"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="四角形: 角を丸くする 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7ECBA2-0247-4560-B363-658928A45805}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19764375" y="19335750"/>
+          <a:ext cx="3589193" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3115,8 +4103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:U135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
@@ -3600,7 +4588,641 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE39AA2-CB90-4A02-B0F3-B2BEAFF1646A}">
+  <dimension ref="C3:F145"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="3.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8792231-0C56-41D5-88F6-6E784A6D97FC}">
+  <dimension ref="P15:DZ105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BC64" sqref="BC64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="25.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="3.7109375" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="15" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG15" s="15" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="16" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG16" s="15" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="17" spans="33:89" x14ac:dyDescent="0.25">
+      <c r="AG17" s="15" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="18" spans="33:89" x14ac:dyDescent="0.25">
+      <c r="AG18" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="19" spans="33:89" x14ac:dyDescent="0.25">
+      <c r="AG19" s="15" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="21" spans="33:89" x14ac:dyDescent="0.25">
+      <c r="AG21" s="15" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="22" spans="33:89" x14ac:dyDescent="0.25">
+      <c r="AG22" s="15" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="23" spans="33:89" x14ac:dyDescent="0.25">
+      <c r="AG23" s="15" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="30" spans="33:89" x14ac:dyDescent="0.25">
+      <c r="AJ30" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="CK30" s="14" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="33" spans="35:130" x14ac:dyDescent="0.25">
+      <c r="CI33" s="14" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="35" spans="35:130" x14ac:dyDescent="0.25">
+      <c r="AI35" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ35" s="14"/>
+    </row>
+    <row r="36" spans="35:130" x14ac:dyDescent="0.25">
+      <c r="AI36" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="AJ36" s="14"/>
+    </row>
+    <row r="37" spans="35:130" x14ac:dyDescent="0.25">
+      <c r="AI37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ37" s="14"/>
+      <c r="DE37" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="DY37" s="15" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="38" spans="35:130" x14ac:dyDescent="0.25">
+      <c r="AI38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ38" s="14"/>
+      <c r="BT38" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="DF38" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="DZ38" s="15" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="43" spans="35:130" x14ac:dyDescent="0.25">
+      <c r="DF43" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="DZ43" s="15" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="45" spans="35:130" x14ac:dyDescent="0.25">
+      <c r="CH45" s="15" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="47" spans="35:130" x14ac:dyDescent="0.25">
+      <c r="BT47" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="CG47" s="15" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="48" spans="35:130" x14ac:dyDescent="0.25">
+      <c r="BT48" s="15" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="49" spans="72:111" x14ac:dyDescent="0.25">
+      <c r="BT49" s="15" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="51" spans="72:111" x14ac:dyDescent="0.25">
+      <c r="CG51" s="15" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="52" spans="72:111" x14ac:dyDescent="0.25">
+      <c r="CG52" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="DG52" s="15" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="53" spans="72:111" x14ac:dyDescent="0.25">
+      <c r="DG53" s="15" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="56" spans="72:111" x14ac:dyDescent="0.25">
+      <c r="DF56" s="15" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="57" spans="72:111" x14ac:dyDescent="0.25">
+      <c r="CG57" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="DF57" s="15" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="60" spans="72:111" x14ac:dyDescent="0.25">
+      <c r="CG60" s="15" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="61" spans="72:111" x14ac:dyDescent="0.25">
+      <c r="CG61" s="15" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="66" spans="66:66" ht="30" x14ac:dyDescent="0.45">
+      <c r="BN66" s="16"/>
+    </row>
+    <row r="97" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P97" s="15" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="99" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P99" s="15" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="101" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P101" s="15" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="103" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P103" s="15" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="105" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P105" s="15" t="s">
+        <v>756</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394A5F51-F099-4E7E-A707-4BA9FC50FA9A}">
   <dimension ref="B3:D7"/>
   <sheetViews>
@@ -3613,7 +5235,7 @@
     <col min="2" max="4" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>483</v>
       </c>
@@ -3624,7 +5246,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>486</v>
       </c>
@@ -3635,7 +5257,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>489</v>
       </c>
@@ -3646,7 +5268,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>492</v>
       </c>
@@ -3657,7 +5279,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>494</v>
       </c>
@@ -3674,7 +5296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F32F5E-AD00-40BF-9ECF-0003C1733E78}">
   <dimension ref="C3:N122"/>
   <sheetViews>
@@ -3995,7 +5617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A66081-3D87-44B0-A389-79D5CF7786BD}">
   <dimension ref="C3:E565"/>
   <sheetViews>
@@ -5459,7 +7081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F28CB3-0951-4C3B-A113-606F00734211}">
   <dimension ref="C3:C204"/>
   <sheetViews>
@@ -5998,7 +7620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1153F6C-D1D2-4429-B137-0E298F8C052D}">
   <dimension ref="C3:C110"/>
   <sheetViews>
@@ -6252,7 +7874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6ABB904-F3B9-4EF0-88CA-CABA0DED12FC}">
   <dimension ref="C3:C131"/>
   <sheetViews>
@@ -6556,7 +8178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E5F973-0988-49EE-893B-3A1326900BD8}">
   <dimension ref="C3:C112"/>
   <sheetViews>
@@ -6893,425 +8515,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE39AA2-CB90-4A02-B0F3-B2BEAFF1646A}">
-  <dimension ref="C3:F145"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="3.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C109" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C110" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C111" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C112" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/project_document/project_plan_document.xlsx
+++ b/project_document/project_plan_document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cliff_studio_project_2025\project_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EB38AC-61A1-43BA-8548-B52C4EC346B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591C94AE-571F-4E64-AD2E-E5C0616D95B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="706" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="795">
   <si>
     <t>使う技術</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2785,6 +2785,94 @@
   </si>
   <si>
     <t xml:space="preserve">   └── postgres-svc → postgres Pod</t>
+  </si>
+  <si>
+    <t>画面のタップ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>About</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自分のサイトの例です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://react-portfolio-template.netlify.app/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soumyajit.vercel.app/about</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ashutoshhathidara.com/home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://developerfolio.js.org/#skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shloksomani.github.io/react-portfolio/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ubaimutl.github.io/react-portfolio/portfolio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dorota1997.github.io/react-frontend-dev-portfolio/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ショッピングカード機能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写真とか動画とかのアップデート</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ページネーション機能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4101,10 +4189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:U135"/>
+  <dimension ref="C3:BG139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
@@ -4112,12 +4200,12 @@
     <col min="1" max="16384" width="5.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:59" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:59" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>350</v>
       </c>
@@ -4141,8 +4229,34 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="8"/>
-    </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="AB4" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="8"/>
+      <c r="AP4" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="7"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="7"/>
+      <c r="BG4" s="8"/>
+    </row>
+    <row r="5" spans="3:59" x14ac:dyDescent="0.2">
       <c r="C5" s="9" t="s">
         <v>351</v>
       </c>
@@ -4166,8 +4280,34 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="11"/>
-    </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="AB5" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="11"/>
+      <c r="AP5" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="11"/>
+    </row>
+    <row r="6" spans="3:59" x14ac:dyDescent="0.2">
       <c r="C6" s="9" t="s">
         <v>352</v>
       </c>
@@ -4191,8 +4331,34 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="11"/>
-    </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="AB6" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="11"/>
+      <c r="AP6" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="11"/>
+    </row>
+    <row r="7" spans="3:59" x14ac:dyDescent="0.2">
       <c r="C7" s="9" t="s">
         <v>353</v>
       </c>
@@ -4216,8 +4382,34 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="11"/>
-    </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="AB7" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="11"/>
+      <c r="AP7" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="10"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="10"/>
+      <c r="BG7" s="11"/>
+    </row>
+    <row r="8" spans="3:59" x14ac:dyDescent="0.2">
       <c r="C8" s="9" t="s">
         <v>354</v>
       </c>
@@ -4241,8 +4433,34 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="11"/>
-    </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="AB8" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="11"/>
+      <c r="AP8" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="10"/>
+      <c r="BA8" s="10"/>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="10"/>
+      <c r="BD8" s="10"/>
+      <c r="BE8" s="10"/>
+      <c r="BF8" s="10"/>
+      <c r="BG8" s="11"/>
+    </row>
+    <row r="9" spans="3:59" x14ac:dyDescent="0.2">
       <c r="C9" s="9" t="s">
         <v>355</v>
       </c>
@@ -4266,8 +4484,34 @@
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="11"/>
-    </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="AB9" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="11"/>
+      <c r="AP9" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="10"/>
+      <c r="BA9" s="10"/>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="10"/>
+      <c r="BD9" s="10"/>
+      <c r="BE9" s="10"/>
+      <c r="BF9" s="10"/>
+      <c r="BG9" s="11"/>
+    </row>
+    <row r="10" spans="3:59" x14ac:dyDescent="0.2">
       <c r="C10" s="9" t="s">
         <v>358</v>
       </c>
@@ -4291,8 +4535,37 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="11"/>
-    </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="AB10" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="AP10" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="10"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="10"/>
+      <c r="BE10" s="10"/>
+      <c r="BF10" s="10"/>
+      <c r="BG10" s="11"/>
+    </row>
+    <row r="11" spans="3:59" x14ac:dyDescent="0.2">
       <c r="C11" s="9" t="s">
         <v>359</v>
       </c>
@@ -4316,269 +4589,324 @@
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="11"/>
-    </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="AB11" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="11"/>
+      <c r="AP11" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="10"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="10"/>
+      <c r="BE11" s="10"/>
+      <c r="BF11" s="10"/>
+      <c r="BG11" s="11"/>
+    </row>
+    <row r="12" spans="3:59" x14ac:dyDescent="0.2">
+      <c r="AB12" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="11"/>
+    </row>
+    <row r="13" spans="3:59" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="AB13" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="11"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="4" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="4" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="I31" s="5" t="s">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I35" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="9:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="I33" s="5" t="s">
+    <row r="37" spans="9:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="I37" s="5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I35" s="4" t="s">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I37" s="4" t="s">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I41" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="I39" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="41" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="I41" s="4" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="43" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
       <c r="I43" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
       <c r="I45" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
       <c r="I47" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
       <c r="I49" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I51" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I53" s="4" t="s">
         <v>368</v>
-      </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I53" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I55" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I57" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I59" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I61" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="I59" s="4" t="s">
+    <row r="63" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I63" s="4" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I64" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I66" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I68" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I70" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I72" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I74" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I76" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I78" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="I75" s="4" t="s">
+    <row r="79" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I79" s="4" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I77" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I79" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I81" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I83" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I85" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I87" s="4" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="I84" s="4" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="88" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
       <c r="I88" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="92" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I92" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="90" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="I90" s="4" t="s">
+    <row r="94" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I94" s="4" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I92" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I94" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="96" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I96" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I98" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I100" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I102" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I104" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I106" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I108" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I110" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I112" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I114" s="4" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I113" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I115" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="117" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I117" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="119" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I119" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="121" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I121" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I125" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I123" s="4" t="s">
+    <row r="127" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I127" s="4" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I126" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I128" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="130" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I130" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I132" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I134" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="133" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="I133" s="4" t="s">
+    <row r="137" spans="9:9" ht="26.25" x14ac:dyDescent="0.5">
+      <c r="I137" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I135" s="4" t="s">
+    <row r="139" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I139" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5013,7 +5341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8792231-0C56-41D5-88F6-6E784A6D97FC}">
   <dimension ref="P15:DZ105"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="BC64" sqref="BC64"/>
     </sheetView>
   </sheetViews>
@@ -5300,7 +5628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F32F5E-AD00-40BF-9ECF-0003C1733E78}">
   <dimension ref="C3:N122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
